--- a/data/trans_orig/Q4505_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q4505_R-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>32941</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23369</v>
+        <v>23760</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44820</v>
+        <v>44183</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1210557687002457</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08587992262369169</v>
+        <v>0.08731725815043237</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1647102732200919</v>
+        <v>0.162368863623451</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -764,19 +764,19 @@
         <v>42191</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30042</v>
+        <v>30964</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55907</v>
+        <v>53885</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1625186993629871</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1157229009261205</v>
+        <v>0.1192717967707526</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2153511462360194</v>
+        <v>0.2075636513871989</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -785,19 +785,19 @@
         <v>75132</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61238</v>
+        <v>59647</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93538</v>
+        <v>92885</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1412995981424878</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1151683283987506</v>
+        <v>0.1121779417947503</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1759145893741116</v>
+        <v>0.1746875882868568</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>111719</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95200</v>
+        <v>95697</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>127701</v>
+        <v>129386</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4105605139999108</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3498547019198956</v>
+        <v>0.3516784132079106</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.469292220256498</v>
+        <v>0.4754855729972607</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>93</v>
@@ -835,19 +835,19 @@
         <v>104010</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86945</v>
+        <v>87906</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>119723</v>
+        <v>120137</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.400645646259594</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3349110193605035</v>
+        <v>0.3386131279484189</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4611719548166274</v>
+        <v>0.4627643123551109</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>202</v>
@@ -856,19 +856,19 @@
         <v>215730</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>193388</v>
+        <v>192236</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>241367</v>
+        <v>240452</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4057196865844546</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3637017892356482</v>
+        <v>0.3615354968992162</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4539349243567897</v>
+        <v>0.4522129922789561</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>98428</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>84294</v>
+        <v>81561</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>116413</v>
+        <v>113348</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3617168684167564</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3097762326757225</v>
+        <v>0.2997304835796508</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4278099392447748</v>
+        <v>0.4165471281313706</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>91</v>
@@ -906,19 +906,19 @@
         <v>94008</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>79713</v>
+        <v>77687</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>111160</v>
+        <v>109082</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3621163391392582</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3070521939155382</v>
+        <v>0.29924880974831</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.428184441030506</v>
+        <v>0.4201809611392215</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>191</v>
@@ -927,19 +927,19 @@
         <v>192437</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>168446</v>
+        <v>169951</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>215234</v>
+        <v>216095</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3619119056957002</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3167932744413315</v>
+        <v>0.3196238043299256</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4047859524195783</v>
+        <v>0.4064068724167637</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>20638</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13421</v>
+        <v>12954</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31677</v>
+        <v>31092</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0758429187304394</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04932132327896958</v>
+        <v>0.04760626143896975</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1164108150884052</v>
+        <v>0.1142627345260749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -977,19 +977,19 @@
         <v>18229</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11400</v>
+        <v>10355</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28806</v>
+        <v>27562</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07021605353123539</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04391335941205365</v>
+        <v>0.03988532785554511</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1109589097410755</v>
+        <v>0.1061686154238066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -998,19 +998,19 @@
         <v>38867</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28073</v>
+        <v>27312</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53562</v>
+        <v>53350</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0730956623844346</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05279578849052207</v>
+        <v>0.05136446280896162</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1007326906702246</v>
+        <v>0.1003338989388976</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>8388</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3797</v>
+        <v>3704</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16557</v>
+        <v>15585</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03082393015264765</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01395246037159763</v>
+        <v>0.01361191275057927</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06084734170673624</v>
+        <v>0.05727358484181401</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6161</v>
+        <v>5917</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004503261706925248</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02373292180341076</v>
+        <v>0.02279128333690796</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -1069,19 +1069,19 @@
         <v>9557</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4944</v>
+        <v>4817</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19703</v>
+        <v>17758</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01797314719292289</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009298301781868397</v>
+        <v>0.009058802107135099</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03705589707648436</v>
+        <v>0.0333962340849589</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>93091</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75788</v>
+        <v>76021</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115078</v>
+        <v>113561</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.18879757477022</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1537048824880326</v>
+        <v>0.1541763501928679</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2333876327385705</v>
+        <v>0.2303119496207366</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -1194,19 +1194,19 @@
         <v>118893</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>99358</v>
+        <v>99974</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>139985</v>
+        <v>138719</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2363821303893487</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1975441489594808</v>
+        <v>0.198768482828483</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2783177695413306</v>
+        <v>0.2758011871701814</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>195</v>
@@ -1215,19 +1215,19 @@
         <v>211984</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>184114</v>
+        <v>186848</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>240473</v>
+        <v>244308</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2128261694739592</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1848452171013251</v>
+        <v>0.1875901023801842</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2414279100597992</v>
+        <v>0.2452787798244541</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>107819</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88800</v>
+        <v>90018</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>128034</v>
+        <v>126576</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2186670507843243</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1800952312931474</v>
+        <v>0.1825649624378224</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2596638507703448</v>
+        <v>0.25670743836853</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>118</v>
@@ -1265,19 +1265,19 @@
         <v>120077</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>100620</v>
+        <v>101101</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>139045</v>
+        <v>140507</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2387366725781471</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2000525484248431</v>
+        <v>0.2010081572293282</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2764482858696976</v>
+        <v>0.2793563369854833</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>220</v>
@@ -1286,19 +1286,19 @@
         <v>227896</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>202813</v>
+        <v>201260</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>253838</v>
+        <v>256335</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2288015324804661</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2036188484404367</v>
+        <v>0.2020593799341941</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2548460422770225</v>
+        <v>0.2573530545060199</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>183115</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>161077</v>
+        <v>163248</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>205085</v>
+        <v>203903</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3713727652987246</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3266776681717958</v>
+        <v>0.3310820280589039</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4159314331168397</v>
+        <v>0.4135339322455567</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>151</v>
@@ -1336,19 +1336,19 @@
         <v>150360</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>130716</v>
+        <v>130724</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>170589</v>
+        <v>169760</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2989455747670412</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.259889788475089</v>
+        <v>0.259905621184273</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3391656575034071</v>
+        <v>0.3375171866011547</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>327</v>
@@ -1357,19 +1357,19 @@
         <v>333475</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>302246</v>
+        <v>304192</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>362288</v>
+        <v>364715</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3347994783535647</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3034468603267884</v>
+        <v>0.3054006488963352</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3637272533886705</v>
+        <v>0.3661640021279369</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>40593</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30232</v>
+        <v>30165</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55275</v>
+        <v>57575</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0823265539093284</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06131226250672146</v>
+        <v>0.06117643486984625</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1121034197216692</v>
+        <v>0.1167664031927241</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1407,19 +1407,19 @@
         <v>41631</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29961</v>
+        <v>30195</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53907</v>
+        <v>54719</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08276983826373407</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05956810845363358</v>
+        <v>0.0600345997077979</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1071775456057295</v>
+        <v>0.1087922101608213</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -1428,19 +1428,19 @@
         <v>82224</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>66929</v>
+        <v>66329</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103146</v>
+        <v>100449</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08255039754833973</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06719507779241998</v>
+        <v>0.06659263616389292</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1035560026902454</v>
+        <v>0.1008482581941989</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>68457</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>54335</v>
+        <v>55724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>85220</v>
+        <v>87302</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1388360552374026</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1101958913938181</v>
+        <v>0.1130131577993004</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1728328904639739</v>
+        <v>0.1770558625195353</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>71</v>
@@ -1478,19 +1478,19 @@
         <v>72008</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58139</v>
+        <v>57532</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>87356</v>
+        <v>87207</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1431657840017289</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1155920032959305</v>
+        <v>0.1143850755574859</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1736817944858234</v>
+        <v>0.1733850016841323</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>139</v>
@@ -1499,19 +1499,19 @@
         <v>140464</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>118769</v>
+        <v>117701</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>163316</v>
+        <v>161295</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1410224221436703</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1192404405987256</v>
+        <v>0.1181684516007798</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.163965229937811</v>
+        <v>0.1619358591187207</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>35809</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24766</v>
+        <v>26305</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49006</v>
+        <v>48914</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1123082872804537</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07767484235102294</v>
+        <v>0.08250090499394011</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.153696871246141</v>
+        <v>0.1534085061953958</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -1624,19 +1624,19 @@
         <v>42062</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31241</v>
+        <v>30552</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54273</v>
+        <v>53861</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1254041182883481</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09314333540248593</v>
+        <v>0.09108801204084466</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1618100610982276</v>
+        <v>0.160580675056279</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>76</v>
@@ -1645,19 +1645,19 @@
         <v>77871</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62498</v>
+        <v>61777</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94255</v>
+        <v>96313</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1190219988076251</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09552433116520254</v>
+        <v>0.09442352261160425</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1440644149062293</v>
+        <v>0.1472092250667164</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>75736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60792</v>
+        <v>60961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90116</v>
+        <v>91464</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2375300816242167</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1906631183802938</v>
+        <v>0.1911913898891532</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2826328908936392</v>
+        <v>0.2868606880983657</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -1695,19 +1695,19 @@
         <v>60884</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47275</v>
+        <v>48582</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>76598</v>
+        <v>77533</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1815196335758303</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1409469129244305</v>
+        <v>0.1448432945988141</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2283690432816189</v>
+        <v>0.2311568378899395</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>137</v>
@@ -1716,19 +1716,19 @@
         <v>136619</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>115949</v>
+        <v>118561</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>157020</v>
+        <v>158889</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2088157533408261</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1772221601649423</v>
+        <v>0.1812142536970701</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2399973970791866</v>
+        <v>0.2428531259833401</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>176803</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>158091</v>
+        <v>157676</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>193695</v>
+        <v>192296</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5545083010440399</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4958235015765549</v>
+        <v>0.494520291796911</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.607486623527321</v>
+        <v>0.6031004197392771</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>212</v>
@@ -1766,19 +1766,19 @@
         <v>214552</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>196474</v>
+        <v>197708</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>230954</v>
+        <v>232286</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6396676338129019</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5857685406323676</v>
+        <v>0.5894491806601224</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.688568187963683</v>
+        <v>0.6925389788163513</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>386</v>
@@ -1787,19 +1787,19 @@
         <v>391355</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>365913</v>
+        <v>364267</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>415375</v>
+        <v>416175</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.598166102806439</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5592800184280544</v>
+        <v>0.556764284489684</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6348793497214424</v>
+        <v>0.6361025618553752</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>12298</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6341</v>
+        <v>6441</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22078</v>
+        <v>22494</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03856981528667511</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01988845454455032</v>
+        <v>0.02020247457923843</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06924395340919999</v>
+        <v>0.07054756315648918</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1837,19 +1837,19 @@
         <v>9951</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4961</v>
+        <v>4867</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18410</v>
+        <v>18317</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0296675178295347</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01479062635753665</v>
+        <v>0.01451060363034182</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05488794430604968</v>
+        <v>0.05461031885936073</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -1858,19 +1858,19 @@
         <v>22249</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13464</v>
+        <v>14253</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32764</v>
+        <v>35651</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03400596156709952</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02057874313219103</v>
+        <v>0.02178542064071332</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05007792169165832</v>
+        <v>0.05449063644820844</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>18201</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11375</v>
+        <v>10959</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28832</v>
+        <v>27805</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0570835147646146</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03567520459121466</v>
+        <v>0.03437164418141991</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09042473468331388</v>
+        <v>0.08720382359387303</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1908,19 +1908,19 @@
         <v>7963</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3890</v>
+        <v>3822</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15276</v>
+        <v>15567</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02374109649338496</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01159700450753426</v>
+        <v>0.01139368244405156</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04554420338219255</v>
+        <v>0.04641029773636628</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -1929,19 +1929,19 @@
         <v>26164</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17994</v>
+        <v>17135</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38291</v>
+        <v>37777</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03999018347801027</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02750350241215001</v>
+        <v>0.02618964746713711</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05852597704512896</v>
+        <v>0.0577407879318456</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>62300</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>49434</v>
+        <v>49138</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77219</v>
+        <v>78221</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1741740166365553</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1382044485716036</v>
+        <v>0.1373775000538478</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2158826224928611</v>
+        <v>0.2186852510811735</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -2054,19 +2054,19 @@
         <v>74246</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60423</v>
+        <v>59155</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91749</v>
+        <v>88873</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2003851035805481</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1630792147211895</v>
+        <v>0.1596551913242793</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2476247138940989</v>
+        <v>0.2398626616810629</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>140</v>
@@ -2075,19 +2075,19 @@
         <v>136546</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>117523</v>
+        <v>116769</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>159817</v>
+        <v>157409</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1875104255813001</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1613877626831395</v>
+        <v>0.1603512198535473</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2194676554708815</v>
+        <v>0.2161608389632754</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>103392</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>86681</v>
+        <v>86793</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>119935</v>
+        <v>122143</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2890558721322899</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2423369049327112</v>
+        <v>0.2426497151544839</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.335307271374758</v>
+        <v>0.3414799847765972</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>106</v>
@@ -2125,19 +2125,19 @@
         <v>101373</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>84838</v>
+        <v>88344</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>117108</v>
+        <v>119680</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2735992565324687</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2289718327463558</v>
+        <v>0.2384347394548077</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3160678883158476</v>
+        <v>0.3230087675195343</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>210</v>
@@ -2146,19 +2146,19 @@
         <v>204765</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>181088</v>
+        <v>180683</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>228703</v>
+        <v>228657</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2811914235124596</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2486775015854581</v>
+        <v>0.2481208306062881</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3140636286031412</v>
+        <v>0.3140003591846346</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>166786</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>147661</v>
+        <v>148680</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>185963</v>
+        <v>184241</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4662880830738627</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4128192993648859</v>
+        <v>0.4156691170453157</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5199037208732803</v>
+        <v>0.5150875727478539</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>169</v>
@@ -2196,19 +2196,19 @@
         <v>163277</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>143048</v>
+        <v>144999</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>180633</v>
+        <v>182092</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4406739828692737</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3860773788268249</v>
+        <v>0.3913425795179679</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4875181224698333</v>
+        <v>0.4914549397034026</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>337</v>
@@ -2217,19 +2217,19 @@
         <v>330063</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>304209</v>
+        <v>306722</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>355028</v>
+        <v>356738</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.453255425717455</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4177516173456261</v>
+        <v>0.421202849641688</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4875391417819212</v>
+        <v>0.4898869725452976</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>14298</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8479</v>
+        <v>8099</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24012</v>
+        <v>23523</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03997216816717283</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02370550720207101</v>
+        <v>0.02264276516062545</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06713209052914093</v>
+        <v>0.0657640982577618</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2267,19 +2267,19 @@
         <v>17875</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11270</v>
+        <v>11226</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27377</v>
+        <v>28619</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04824262968411507</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03041747738824111</v>
+        <v>0.03029947583753984</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07388834486756513</v>
+        <v>0.07724008364763461</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>32</v>
@@ -2288,19 +2288,19 @@
         <v>32172</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22619</v>
+        <v>21832</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44768</v>
+        <v>43126</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04418024458870387</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03106178285375625</v>
+        <v>0.02998029745582931</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06147712744231576</v>
+        <v>0.05922215640747669</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>10913</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5774</v>
+        <v>5675</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19355</v>
+        <v>18186</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03050985999011924</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01614118300603444</v>
+        <v>0.01586648947495613</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05411220832121737</v>
+        <v>0.05084411872357969</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2338,19 +2338,19 @@
         <v>13746</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7671</v>
+        <v>7991</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23350</v>
+        <v>22620</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03709902733359441</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0207036956350721</v>
+        <v>0.02156674946972787</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06301948959841179</v>
+        <v>0.06104963513116496</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>25</v>
@@ -2359,19 +2359,19 @@
         <v>24659</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16420</v>
+        <v>16614</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36091</v>
+        <v>36221</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03386248060008148</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02254822828486125</v>
+        <v>0.02281513906825776</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04956194924327532</v>
+        <v>0.04974022733022976</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>73381</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>61012</v>
+        <v>61675</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>87812</v>
+        <v>88813</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3609337500007501</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3000986799819755</v>
+        <v>0.3033560756878252</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4319148490658443</v>
+        <v>0.4368386826998483</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>87</v>
@@ -2484,19 +2484,19 @@
         <v>91780</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>77251</v>
+        <v>76935</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>108156</v>
+        <v>105918</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4419577463131136</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3719931573851232</v>
+        <v>0.3704730302396709</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5208102444283245</v>
+        <v>0.5100334958779016</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>161</v>
@@ -2505,19 +2505,19 @@
         <v>165161</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>146473</v>
+        <v>145548</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>184637</v>
+        <v>185990</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4018755309878723</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3564035557538471</v>
+        <v>0.3541531075670102</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4492639776472811</v>
+        <v>0.4525568284527339</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>34568</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>25165</v>
+        <v>25120</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46535</v>
+        <v>46146</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.17002838760346</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1237762574545408</v>
+        <v>0.1235554363240457</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2288881436936592</v>
+        <v>0.2269754278754175</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>28</v>
@@ -2555,19 +2555,19 @@
         <v>29623</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20286</v>
+        <v>19873</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41647</v>
+        <v>39860</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1426473850222548</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09768489857093114</v>
+        <v>0.09569780859218381</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2005467674850434</v>
+        <v>0.1919402831214592</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>66</v>
@@ -2576,19 +2576,19 @@
         <v>64191</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>50094</v>
+        <v>51357</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>81458</v>
+        <v>81655</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1561926468117352</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1218893269305621</v>
+        <v>0.124963461264305</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1982057543267448</v>
+        <v>0.1986855327395504</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>43518</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32951</v>
+        <v>33405</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>56986</v>
+        <v>56438</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2140491205257209</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1620739653649202</v>
+        <v>0.1643091358843762</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2802952701754192</v>
+        <v>0.2775989787182475</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -2626,19 +2626,19 @@
         <v>31611</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>22648</v>
+        <v>22150</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>42692</v>
+        <v>43067</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1522196483351928</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1090588743406837</v>
+        <v>0.106661752063796</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2055788186489348</v>
+        <v>0.2073817204026323</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>73</v>
@@ -2647,19 +2647,19 @@
         <v>75129</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>59504</v>
+        <v>60205</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>91501</v>
+        <v>92187</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.182806416830696</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1447866302716526</v>
+        <v>0.1464924587855658</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2226441620349491</v>
+        <v>0.2243115401454284</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>17732</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10752</v>
+        <v>10294</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29108</v>
+        <v>28718</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.08721608258555041</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05288567869394106</v>
+        <v>0.05063023305129107</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1431728938881323</v>
+        <v>0.1412548834872737</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>18</v>
@@ -2697,19 +2697,19 @@
         <v>18367</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10810</v>
+        <v>10661</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>27895</v>
+        <v>27092</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08844593958616753</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05205365536266161</v>
+        <v>0.05133521315766267</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1343252407734532</v>
+        <v>0.1304568263138804</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>34</v>
@@ -2718,19 +2718,19 @@
         <v>36099</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>25204</v>
+        <v>25656</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>49796</v>
+        <v>49489</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08783753472635357</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06132602813419731</v>
+        <v>0.06242602886670553</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.121165690245929</v>
+        <v>0.1204180587592563</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>34110</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24480</v>
+        <v>24404</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>46586</v>
+        <v>44633</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1677726592845186</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1204071268349029</v>
+        <v>0.1200351393799239</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2291376789876223</v>
+        <v>0.2195350263752473</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>35</v>
@@ -2768,19 +2768,19 @@
         <v>36286</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>25793</v>
+        <v>25439</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>48725</v>
+        <v>47517</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1747292807432713</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.124205030171145</v>
+        <v>0.1224997402218552</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2346302832831177</v>
+        <v>0.2288127879391154</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>70</v>
@@ -2789,19 +2789,19 @@
         <v>70395</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>55802</v>
+        <v>56463</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>86317</v>
+        <v>87249</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.171287870643343</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1357792799318717</v>
+        <v>0.1373887113705881</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2100290143018843</v>
+        <v>0.2122968166698964</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>32416</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>22574</v>
+        <v>22511</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>42588</v>
+        <v>44811</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1197011394221881</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08335818838271364</v>
+        <v>0.08312429510730969</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1572597454639913</v>
+        <v>0.1654710540700151</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>31</v>
@@ -2914,19 +2914,19 @@
         <v>31682</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>21828</v>
+        <v>22354</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>43023</v>
+        <v>43244</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1142604064306516</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07872162825493285</v>
+        <v>0.08061985248057972</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.155163749899584</v>
+        <v>0.1559600358389643</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>64</v>
@@ -2935,19 +2935,19 @@
         <v>64098</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>50951</v>
+        <v>50742</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>81997</v>
+        <v>79723</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1169486741756844</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09296199936915814</v>
+        <v>0.0925803692243614</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1496061014609237</v>
+        <v>0.145456403561488</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>59765</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>47694</v>
+        <v>47474</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>73470</v>
+        <v>73404</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2206885724835539</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1761142745205444</v>
+        <v>0.1753022822732155</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.271295078910253</v>
+        <v>0.2710536004764229</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>39</v>
@@ -2985,19 +2985,19 @@
         <v>40989</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>29843</v>
+        <v>30021</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>53488</v>
+        <v>54126</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1478255791587942</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1076269265067389</v>
+        <v>0.1082699204042596</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1929044693520016</v>
+        <v>0.1952057852882331</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>99</v>
@@ -3006,19 +3006,19 @@
         <v>100754</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>82022</v>
+        <v>84257</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>122402</v>
+        <v>118910</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1838272052386239</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1496514132232354</v>
+        <v>0.1537287936754072</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2233246179715687</v>
+        <v>0.2169529446511146</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>153819</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>138180</v>
+        <v>137572</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>169731</v>
+        <v>169798</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5679953115508547</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5102466892688482</v>
+        <v>0.5079998490747536</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6267521105101697</v>
+        <v>0.6269977400232708</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>179</v>
@@ -3056,19 +3056,19 @@
         <v>183461</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>168686</v>
+        <v>167347</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>199797</v>
+        <v>199546</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6616494918260405</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6083633580180038</v>
+        <v>0.6035354049818</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.7205663309774103</v>
+        <v>0.7196587870948385</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>329</v>
@@ -3077,19 +3077,19 @@
         <v>337280</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>313232</v>
+        <v>313686</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>358058</v>
+        <v>357532</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6153749342594568</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5714988325518072</v>
+        <v>0.5723272641197632</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6532838210490909</v>
+        <v>0.6523241269046626</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>8757</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3816</v>
+        <v>3897</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>16176</v>
+        <v>15780</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03233557634365462</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01409246238865441</v>
+        <v>0.01439038430428144</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05973353856133074</v>
+        <v>0.05826916561903635</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>13</v>
@@ -3127,19 +3127,19 @@
         <v>13988</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7813</v>
+        <v>7932</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23853</v>
+        <v>24351</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05044925471606918</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02817925520013357</v>
+        <v>0.02860542465412818</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08602521103254486</v>
+        <v>0.08782265124606839</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>21</v>
@@ -3148,19 +3148,19 @@
         <v>22745</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>14979</v>
+        <v>14699</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>33331</v>
+        <v>35156</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04149928099226982</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0273291767067089</v>
+        <v>0.02681923368189508</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06081340101334147</v>
+        <v>0.06414234014204499</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>16054</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>9389</v>
+        <v>9488</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>26030</v>
+        <v>25463</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05927940019974864</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03466932229979893</v>
+        <v>0.03503535866129372</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09611685617098238</v>
+        <v>0.09402616893151276</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>7</v>
@@ -3198,19 +3198,19 @@
         <v>7158</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3026</v>
+        <v>3089</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>13800</v>
+        <v>14185</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02581526786844456</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01091287975010056</v>
+        <v>0.01114132602349366</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04977061992625367</v>
+        <v>0.05115956138911259</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>22</v>
@@ -3219,19 +3219,19 @@
         <v>23212</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>15118</v>
+        <v>14994</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>34464</v>
+        <v>35754</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04234990533396516</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02758334671332504</v>
+        <v>0.02735642743450556</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06288057791708096</v>
+        <v>0.06523315530504725</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>152877</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>132153</v>
+        <v>130649</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>175946</v>
+        <v>176405</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2485688389006601</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2148740546826686</v>
+        <v>0.2124280152842021</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2860785938727474</v>
+        <v>0.2868245805847613</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>132</v>
@@ -3344,19 +3344,19 @@
         <v>138775</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>117497</v>
+        <v>118830</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>161190</v>
+        <v>161034</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2174406379369296</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1841020810536071</v>
+        <v>0.1861898320323165</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2525617788492238</v>
+        <v>0.2523182447511022</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>278</v>
@@ -3365,19 +3365,19 @@
         <v>291651</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>259194</v>
+        <v>258952</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>322035</v>
+        <v>322123</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2327167158418814</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2068180856203787</v>
+        <v>0.2066249077954025</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2569608492292034</v>
+        <v>0.2570307644476835</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>103447</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>87110</v>
+        <v>84607</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>123961</v>
+        <v>121508</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1681986709738219</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1416362608083726</v>
+        <v>0.1375667941453446</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2015530564762056</v>
+        <v>0.1975651970072206</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>93</v>
@@ -3415,19 +3415,19 @@
         <v>93990</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>78139</v>
+        <v>77471</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>114379</v>
+        <v>112091</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1472698822602927</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1224328129105049</v>
+        <v>0.1213867483246481</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1792164412017111</v>
+        <v>0.1756312970256111</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>197</v>
@@ -3436,19 +3436,19 @@
         <v>197437</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>172516</v>
+        <v>174350</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>222623</v>
+        <v>226358</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1575406270173271</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.137655435007667</v>
+        <v>0.1391189980184164</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1776374209819813</v>
+        <v>0.1806177242797853</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>298158</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>273643</v>
+        <v>271099</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>322460</v>
+        <v>322604</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4847891841084268</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4449283718386893</v>
+        <v>0.4407916216550218</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.524302705520325</v>
+        <v>0.5245366823637455</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>328</v>
@@ -3486,19 +3486,19 @@
         <v>338171</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>310420</v>
+        <v>311085</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>360960</v>
+        <v>363937</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5298669633925452</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4863853621249448</v>
+        <v>0.4874260246959528</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5655736726645378</v>
+        <v>0.5702382826311754</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>617</v>
@@ -3507,19 +3507,19 @@
         <v>636330</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>597793</v>
+        <v>602275</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>670766</v>
+        <v>674239</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.507745168788072</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4769959955547092</v>
+        <v>0.4805716933856123</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5352228868869624</v>
+        <v>0.5379939010762439</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>10830</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>5600</v>
+        <v>5346</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>18778</v>
+        <v>18786</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01760866498533199</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.009105763758659806</v>
+        <v>0.008692312035903708</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03053161297757435</v>
+        <v>0.03054521671144256</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>14</v>
@@ -3557,19 +3557,19 @@
         <v>13277</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>7437</v>
+        <v>7206</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>21966</v>
+        <v>22023</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.020803158846567</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01165247154833558</v>
+        <v>0.01129062177296878</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03441724367193486</v>
+        <v>0.03450661630477523</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>25</v>
@@ -3578,19 +3578,19 @@
         <v>24107</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>15489</v>
+        <v>15938</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>34946</v>
+        <v>34935</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01923546988349536</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.0123590362358201</v>
+        <v>0.01271706014398709</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02788424711118252</v>
+        <v>0.02787593973055717</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>49715</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>37781</v>
+        <v>37049</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>64535</v>
+        <v>65736</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.08083464103175922</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06142903539871961</v>
+        <v>0.06023883436502279</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1049303520134569</v>
+        <v>0.106883018385792</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>54</v>
@@ -3628,19 +3628,19 @@
         <v>54006</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>40447</v>
+        <v>41483</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>69469</v>
+        <v>69062</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.08461935756366536</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.06337429746557056</v>
+        <v>0.06499870319804135</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1088476223579449</v>
+        <v>0.1082102125584846</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>102</v>
@@ -3649,19 +3649,19 @@
         <v>103721</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>85689</v>
+        <v>85224</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>122665</v>
+        <v>124260</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.08276201846922422</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.06837386382922783</v>
+        <v>0.06800268317946336</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.09787761975068467</v>
+        <v>0.09915017750726436</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>241668</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>217364</v>
+        <v>215103</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>265062</v>
+        <v>267146</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3253567532778534</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2926370053211247</v>
+        <v>0.2895932108137367</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3568532370387696</v>
+        <v>0.3596580463271062</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>263</v>
@@ -3774,19 +3774,19 @@
         <v>276948</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>251060</v>
+        <v>249104</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>305705</v>
+        <v>303876</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3549833641367853</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3218014298363489</v>
+        <v>0.3192933596059043</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.391843277844407</v>
+        <v>0.3894984559880067</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>510</v>
@@ -3795,19 +3795,19 @@
         <v>518616</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>481367</v>
+        <v>483643</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>557185</v>
+        <v>556612</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.3405337880241913</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3160753157915169</v>
+        <v>0.3175703671257085</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3658590737021413</v>
+        <v>0.3654833246189249</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>223662</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>199775</v>
+        <v>198768</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>249275</v>
+        <v>248500</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3011155812075523</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2689563271534724</v>
+        <v>0.2676011245860239</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3355985865129367</v>
+        <v>0.3345550760673401</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>245</v>
@@ -3845,19 +3845,19 @@
         <v>256207</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>230492</v>
+        <v>231348</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>282689</v>
+        <v>284954</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3283982927442564</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2954373847517567</v>
+        <v>0.2965345722522166</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3623417639664552</v>
+        <v>0.3652454849306941</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>467</v>
@@ -3866,19 +3866,19 @@
         <v>479869</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>444555</v>
+        <v>445133</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>514126</v>
+        <v>514664</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3150918899705926</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2919039589611238</v>
+        <v>0.2922838276372663</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3375855410131775</v>
+        <v>0.3379391879048093</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>168427</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>145285</v>
+        <v>146034</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>192680</v>
+        <v>192812</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.22675372331542</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1955964452062066</v>
+        <v>0.1966050781346565</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2594048162184967</v>
+        <v>0.2595829694790233</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>128</v>
@@ -3916,19 +3916,19 @@
         <v>131901</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>114350</v>
+        <v>110732</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>153195</v>
+        <v>154791</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1690670759604181</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.146570208217271</v>
+        <v>0.1419327983450058</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.19636018938511</v>
+        <v>0.1984066351939333</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>287</v>
@@ -3937,19 +3937,19 @@
         <v>300329</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>270699</v>
+        <v>269991</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>329966</v>
+        <v>331601</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1972021740182227</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1777468162613478</v>
+        <v>0.1772814349292978</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.216662612365931</v>
+        <v>0.2177363726397804</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>41251</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>29924</v>
+        <v>29557</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>56614</v>
+        <v>55071</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.05553578078529192</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.04028635001473387</v>
+        <v>0.03979322393524603</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.07621880639423502</v>
+        <v>0.07414209042524131</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>46</v>
@@ -3987,19 +3987,19 @@
         <v>50609</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>37892</v>
+        <v>37408</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>66483</v>
+        <v>67336</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.06486891200362076</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.04856899501941243</v>
+        <v>0.04794800014878915</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.08521597267241542</v>
+        <v>0.0863091296515512</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>86</v>
@@ -4008,19 +4008,19 @@
         <v>91860</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>74255</v>
+        <v>72906</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>111474</v>
+        <v>112663</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.0603169303223475</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.04875754741987932</v>
+        <v>0.04787162721919037</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.0731962120341174</v>
+        <v>0.0739768481837656</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>67770</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>52834</v>
+        <v>52390</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>85409</v>
+        <v>83335</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.09123816141388233</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.07113059164364832</v>
+        <v>0.07053291853205956</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1149856080627509</v>
+        <v>0.1121944336704922</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>60</v>
@@ -4058,19 +4058,19 @@
         <v>64506</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>50637</v>
+        <v>50176</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>81555</v>
+        <v>84031</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.08268235515491944</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.06490525726222862</v>
+        <v>0.064313972426343</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1045348619067936</v>
+        <v>0.1077077470197452</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>127</v>
@@ -4079,19 +4079,19 @@
         <v>132276</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>111614</v>
+        <v>111848</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>154145</v>
+        <v>156754</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.08685521766464591</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.07328808828231415</v>
+        <v>0.07344192267696208</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1012145887012342</v>
+        <v>0.1029278450121989</v>
       </c>
     </row>
     <row r="51">
@@ -4183,19 +4183,19 @@
         <v>724483</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>677497</v>
+        <v>677667</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>778085</v>
+        <v>769995</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2213075122811612</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2069549011124601</v>
+        <v>0.2070066424150565</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2376814546335518</v>
+        <v>0.2352100132424031</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>786</v>
@@ -4204,19 +4204,19 @@
         <v>816577</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>767567</v>
+        <v>770611</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>863299</v>
+        <v>871040</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2421753913149438</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.2276403593130411</v>
+        <v>0.2285429834919507</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2560318280965766</v>
+        <v>0.2583277312519254</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1498</v>
@@ -4225,19 +4225,19 @@
         <v>1541060</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>1474062</v>
+        <v>1472045</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>1613087</v>
+        <v>1611913</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2318956245979349</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2218139457833402</v>
+        <v>0.2215104669357088</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2427341591074329</v>
+        <v>0.2425574754911471</v>
       </c>
     </row>
     <row r="53">
@@ -4254,19 +4254,19 @@
         <v>820108</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>760893</v>
+        <v>772085</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>861300</v>
+        <v>870142</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2505180359397672</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2324297461333462</v>
+        <v>0.235848623401619</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2631010834586212</v>
+        <v>0.2658021746224558</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>784</v>
@@ -4275,19 +4275,19 @@
         <v>807154</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>759379</v>
+        <v>758292</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>861109</v>
+        <v>853661</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.239380802959718</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2252120884450076</v>
+        <v>0.2248895675124819</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.2553824110412132</v>
+        <v>0.2531735492723048</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1598</v>
@@ -4296,19 +4296,19 @@
         <v>1627262</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1559752</v>
+        <v>1557974</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>1693026</v>
+        <v>1699596</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.2448671370870407</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.2347084528229199</v>
+        <v>0.2344409286211461</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2547632417842835</v>
+        <v>0.2557518410740228</v>
       </c>
     </row>
     <row r="54">
@@ -4325,19 +4325,19 @@
         <v>1289055</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1230321</v>
+        <v>1235527</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1342761</v>
+        <v>1345568</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3937672127283456</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3758258725243531</v>
+        <v>0.3774162045444616</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.4101729627071936</v>
+        <v>0.4110301977429154</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1288</v>
@@ -4346,19 +4346,19 @@
         <v>1307342</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1254275</v>
+        <v>1253696</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1362900</v>
+        <v>1363949</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3877235113251706</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3719850693871244</v>
+        <v>0.3718136179923971</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.4042005476875749</v>
+        <v>0.4045117366271131</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2547</v>
@@ -4367,19 +4367,19 @@
         <v>2596397</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2515851</v>
+        <v>2520027</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2683495</v>
+        <v>2674953</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.390700710897361</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3785803696578031</v>
+        <v>0.3792087727953408</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.4038070045586737</v>
+        <v>0.4025216880533961</v>
       </c>
     </row>
     <row r="55">
@@ -4396,19 +4396,19 @@
         <v>166396</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>143850</v>
+        <v>140179</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>192962</v>
+        <v>192874</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.05082881461507417</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.0439419357014987</v>
+        <v>0.04282055158519431</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.05894419347991647</v>
+        <v>0.05891726963519871</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>180</v>
@@ -4417,19 +4417,19 @@
         <v>183926</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>159619</v>
+        <v>159211</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>210710</v>
+        <v>211674</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.05454778614650102</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.04733892249639565</v>
+        <v>0.04721779002850112</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.06249117570499311</v>
+        <v>0.0627771170405521</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>337</v>
@@ -4438,19 +4438,19 @@
         <v>350322</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>317521</v>
+        <v>310891</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>388350</v>
+        <v>388059</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.05271577630456282</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.04777991606800655</v>
+        <v>0.04678226727530748</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.0584380980915531</v>
+        <v>0.05839436232514673</v>
       </c>
     </row>
     <row r="56">
@@ -4467,19 +4467,19 @@
         <v>273606</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>242680</v>
+        <v>244523</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>306011</v>
+        <v>309233</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.08357842443565186</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.07413141483703078</v>
+        <v>0.07469434800536628</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.09347697305605443</v>
+        <v>0.09446127469385758</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>252</v>
@@ -4488,19 +4488,19 @@
         <v>256842</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>226242</v>
+        <v>227283</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>286847</v>
+        <v>289696</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.0761725082536666</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.06709761611735426</v>
+        <v>0.06740623652291755</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.08507126427638934</v>
+        <v>0.08591621483619143</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>521</v>
@@ -4509,19 +4509,19 @@
         <v>530448</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>486153</v>
+        <v>489820</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>580052</v>
+        <v>577670</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.07982075111310061</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.07315528524682638</v>
+        <v>0.07370722017964022</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.08728505234353333</v>
+        <v>0.08692657557321584</v>
       </c>
     </row>
     <row r="57">
@@ -4857,19 +4857,19 @@
         <v>94825</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78399</v>
+        <v>77734</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112792</v>
+        <v>112373</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3226549869050139</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2667634551444812</v>
+        <v>0.264500804718297</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3837915104277134</v>
+        <v>0.3823652431631946</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>83</v>
@@ -4878,19 +4878,19 @@
         <v>95703</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80547</v>
+        <v>79981</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115636</v>
+        <v>112345</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3368662984474108</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2835183235938235</v>
+        <v>0.281524622723294</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4070276011127777</v>
+        <v>0.3954448253589369</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>171</v>
@@ -4899,19 +4899,19 @@
         <v>190528</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>165630</v>
+        <v>167448</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>214213</v>
+        <v>215228</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3296402889706099</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2865643318302623</v>
+        <v>0.2897081629782504</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3706192133645134</v>
+        <v>0.3723752207993076</v>
       </c>
     </row>
     <row r="5">
@@ -4928,19 +4928,19 @@
         <v>74920</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60206</v>
+        <v>60223</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91225</v>
+        <v>91469</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.254926175710964</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2048594998070579</v>
+        <v>0.2049177682204947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3104047733652409</v>
+        <v>0.3112353899318456</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -4949,19 +4949,19 @@
         <v>72387</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58746</v>
+        <v>58104</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>88544</v>
+        <v>87903</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2547952284474892</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2067787723266395</v>
+        <v>0.2045218461796722</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3116676346243759</v>
+        <v>0.3094084874252899</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>141</v>
@@ -4970,19 +4970,19 @@
         <v>147307</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>126611</v>
+        <v>126850</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>170216</v>
+        <v>170820</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2548618110541689</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2190549428010315</v>
+        <v>0.2194689469299622</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2944981883235038</v>
+        <v>0.2955428316923524</v>
       </c>
     </row>
     <row r="6">
@@ -4999,19 +4999,19 @@
         <v>72590</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58482</v>
+        <v>57507</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>88905</v>
+        <v>86721</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2469969138635005</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1989921367047391</v>
+        <v>0.1956771197513608</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3025127384177062</v>
+        <v>0.295081540449833</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>56</v>
@@ -5020,19 +5020,19 @@
         <v>63934</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>49136</v>
+        <v>49692</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>79044</v>
+        <v>78126</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2250395200401267</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1729540999788792</v>
+        <v>0.1749104483094262</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2782255348689349</v>
+        <v>0.274996232395005</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>126</v>
@@ -5041,19 +5041,19 @@
         <v>136523</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>117630</v>
+        <v>116629</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>160315</v>
+        <v>159165</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2362041711970732</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2035166148268439</v>
+        <v>0.2017841533449694</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2773677398172695</v>
+        <v>0.2753783302796531</v>
       </c>
     </row>
     <row r="7">
@@ -5070,19 +5070,19 @@
         <v>14128</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7415</v>
+        <v>7604</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22960</v>
+        <v>23017</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04807098659589936</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02523026853118857</v>
+        <v>0.025872537591547</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0781252880901423</v>
+        <v>0.07831801607688388</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -5091,19 +5091,19 @@
         <v>9075</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4066</v>
+        <v>4207</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17670</v>
+        <v>18140</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03194298931337347</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01431213175784511</v>
+        <v>0.01480688468410454</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06219725275457102</v>
+        <v>0.06385158855441822</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -5112,19 +5112,19 @@
         <v>23202</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15278</v>
+        <v>14758</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34931</v>
+        <v>35895</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04014357381661735</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02643248306728353</v>
+        <v>0.02553407256392456</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06043528110587316</v>
+        <v>0.06210431217748456</v>
       </c>
     </row>
     <row r="8">
@@ -5141,19 +5141,19 @@
         <v>37427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>27604</v>
+        <v>27194</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51109</v>
+        <v>50584</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1273509369246222</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09392592426411574</v>
+        <v>0.09253265671803676</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1739065688064992</v>
+        <v>0.1721205259823698</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>39</v>
@@ -5162,19 +5162,19 @@
         <v>43000</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30976</v>
+        <v>31238</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56618</v>
+        <v>55813</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1513559637515998</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.109032758418989</v>
+        <v>0.1099540498713079</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.199290829428257</v>
+        <v>0.1964574789595434</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>74</v>
@@ -5183,19 +5183,19 @@
         <v>80427</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>65627</v>
+        <v>63278</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>101759</v>
+        <v>98658</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1391501549615306</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.113544046316212</v>
+        <v>0.1094802616575762</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1760582301893904</v>
+        <v>0.1706916617206844</v>
       </c>
     </row>
     <row r="9">
@@ -5287,19 +5287,19 @@
         <v>217227</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>194536</v>
+        <v>195032</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>240975</v>
+        <v>242552</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4305247344026239</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3855525326979646</v>
+        <v>0.386535300814359</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4775913875618006</v>
+        <v>0.4807160656597623</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>216</v>
@@ -5308,19 +5308,19 @@
         <v>236788</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>214326</v>
+        <v>211289</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>259493</v>
+        <v>259049</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4539274034199231</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4108667449416448</v>
+        <v>0.4050461370613039</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.49745326592045</v>
+        <v>0.4966013881650553</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>416</v>
@@ -5329,19 +5329,19 @@
         <v>454015</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>417998</v>
+        <v>423498</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>486196</v>
+        <v>487804</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4424208158911949</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4073230664219228</v>
+        <v>0.4126832549217996</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4737793798816428</v>
+        <v>0.4753469004318764</v>
       </c>
     </row>
     <row r="11">
@@ -5358,19 +5358,19 @@
         <v>137197</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>116414</v>
+        <v>117189</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>158166</v>
+        <v>158834</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2719115841231543</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.230722580831262</v>
+        <v>0.2322584934405536</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3134700544562607</v>
+        <v>0.3147952774197098</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>118</v>
@@ -5379,19 +5379,19 @@
         <v>130914</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>110623</v>
+        <v>111870</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>152270</v>
+        <v>153476</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2509652590417993</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.212066066656947</v>
+        <v>0.2144579433015849</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2919053717170997</v>
+        <v>0.2942174919512313</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>246</v>
@@ -5400,19 +5400,19 @@
         <v>268111</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>237572</v>
+        <v>237243</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>300815</v>
+        <v>297842</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2612641152438694</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2315049604341071</v>
+        <v>0.2311841135295064</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2931324941920537</v>
+        <v>0.2902354015807437</v>
       </c>
     </row>
     <row r="12">
@@ -5429,19 +5429,19 @@
         <v>101136</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84609</v>
+        <v>83330</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>120273</v>
+        <v>120635</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2004430403058016</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1676877120239407</v>
+        <v>0.1651527483317674</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2383691951439779</v>
+        <v>0.2390868013940102</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>111</v>
@@ -5450,19 +5450,19 @@
         <v>117448</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>98659</v>
+        <v>97844</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>136514</v>
+        <v>138026</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2251505979222801</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.189132146012002</v>
+        <v>0.1875693528712781</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2616999611669605</v>
+        <v>0.2645981306056028</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>213</v>
@@ -5471,19 +5471,19 @@
         <v>218585</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>193151</v>
+        <v>193840</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>245417</v>
+        <v>248548</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2130024248175393</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1882182235350902</v>
+        <v>0.1888901728849458</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.239149614904802</v>
+        <v>0.2422006046875157</v>
       </c>
     </row>
     <row r="13">
@@ -5500,19 +5500,19 @@
         <v>6963</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2976</v>
+        <v>2955</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13868</v>
+        <v>13847</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01380097547266918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00589882992561138</v>
+        <v>0.005857223856860175</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02748485002969632</v>
+        <v>0.0274425362969708</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -5521,19 +5521,19 @@
         <v>4012</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1029</v>
+        <v>995</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9898</v>
+        <v>9998</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007691577868106469</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001972148709112149</v>
+        <v>0.001906789961215903</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0189741365683364</v>
+        <v>0.01916699219037493</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -5542,19 +5542,19 @@
         <v>10976</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6073</v>
+        <v>5916</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19001</v>
+        <v>19163</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01069543688233851</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005918034497137323</v>
+        <v>0.005764579324180978</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01851543656953314</v>
+        <v>0.01867401671628022</v>
       </c>
     </row>
     <row r="14">
@@ -5571,19 +5571,19 @@
         <v>42040</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28793</v>
+        <v>29967</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57517</v>
+        <v>58718</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08331966569575099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05706512402081299</v>
+        <v>0.05939234695238211</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1139944197897749</v>
+        <v>0.1163739842933642</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -5592,19 +5592,19 @@
         <v>32480</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22419</v>
+        <v>23634</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45857</v>
+        <v>46284</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06226516174789093</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04297813827353661</v>
+        <v>0.04530611318191901</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08790880887623387</v>
+        <v>0.08872782635428463</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>63</v>
@@ -5613,19 +5613,19 @@
         <v>74520</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>57430</v>
+        <v>57427</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>95900</v>
+        <v>94037</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07261720716505779</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05596359881048721</v>
+        <v>0.0559601352357523</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0934509019519502</v>
+        <v>0.09163517995286277</v>
       </c>
     </row>
     <row r="15">
@@ -5717,19 +5717,19 @@
         <v>129203</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>111667</v>
+        <v>112827</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>147148</v>
+        <v>146079</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4010332406309506</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3466026430922345</v>
+        <v>0.350204028507498</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4567306553869608</v>
+        <v>0.453414449319352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>187</v>
@@ -5738,19 +5738,19 @@
         <v>200541</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>181431</v>
+        <v>183723</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>217781</v>
+        <v>220091</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5880636163888991</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5320241732033173</v>
+        <v>0.5387446154404606</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6386172467660234</v>
+        <v>0.6453909023018655</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>311</v>
@@ -5759,19 +5759,19 @@
         <v>329745</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>303578</v>
+        <v>302552</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>355228</v>
+        <v>355430</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4972056052889541</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4577505964032639</v>
+        <v>0.4562026827704329</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5356301930544719</v>
+        <v>0.5359350527581105</v>
       </c>
     </row>
     <row r="17">
@@ -5788,19 +5788,19 @@
         <v>125606</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108011</v>
+        <v>110179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>142585</v>
+        <v>142897</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3898670916932167</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.335254468742503</v>
+        <v>0.3419832604536439</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4425676385042549</v>
+        <v>0.4435376727076696</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -5809,19 +5809,19 @@
         <v>89215</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>74065</v>
+        <v>72809</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>106063</v>
+        <v>106724</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2616111161851039</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2171871571625079</v>
+        <v>0.2135027726253255</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3110163661943761</v>
+        <v>0.3129540845627353</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>206</v>
@@ -5830,19 +5830,19 @@
         <v>214820</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>188301</v>
+        <v>189682</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>240307</v>
+        <v>239279</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3239169464499781</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2839300990552051</v>
+        <v>0.2860117311222055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3623469164707357</v>
+        <v>0.3607966021836692</v>
       </c>
     </row>
     <row r="18">
@@ -5859,19 +5859,19 @@
         <v>55886</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>43041</v>
+        <v>43612</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70209</v>
+        <v>70308</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1734649055735791</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1335942821165416</v>
+        <v>0.13536737728781</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2179202971250357</v>
+        <v>0.2182297382328922</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -5880,19 +5880,19 @@
         <v>32550</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>23023</v>
+        <v>23341</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>45872</v>
+        <v>45923</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09544883632922563</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06751174033780678</v>
+        <v>0.06844521734008675</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1345150164984431</v>
+        <v>0.1346644077644874</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>87</v>
@@ -5901,19 +5901,19 @@
         <v>88436</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>71861</v>
+        <v>71801</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>106796</v>
+        <v>106176</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1333484815427455</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1083555313054271</v>
+        <v>0.1082648593886102</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1610328217191891</v>
+        <v>0.1600976086196929</v>
       </c>
     </row>
     <row r="19">
@@ -5930,19 +5930,19 @@
         <v>2781</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7404</v>
+        <v>7566</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008632451199433859</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002818945225701327</v>
+        <v>0.002831214969770822</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02298025099700575</v>
+        <v>0.02348391932001954</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -5951,19 +5951,19 @@
         <v>5967</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11912</v>
+        <v>12998</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01749607626409091</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00591411167593515</v>
+        <v>0.005926645671775106</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03493182066841361</v>
+        <v>0.03811381544002111</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -5972,19 +5972,19 @@
         <v>8748</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3939</v>
+        <v>3931</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16406</v>
+        <v>15823</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01319019097007531</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005939372134910349</v>
+        <v>0.005927000726997831</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02473804306863179</v>
+        <v>0.02385908457040234</v>
       </c>
     </row>
     <row r="20">
@@ -6001,19 +6001,19 @@
         <v>8699</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3944</v>
+        <v>4675</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15192</v>
+        <v>15295</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02700231090281974</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01224311980294529</v>
+        <v>0.01451071949793545</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04715553122147679</v>
+        <v>0.04747321024057346</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -6022,19 +6022,19 @@
         <v>12747</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6751</v>
+        <v>6333</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21389</v>
+        <v>20686</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03738035483268044</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01979672740054095</v>
+        <v>0.01857155063537882</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06271973338569702</v>
+        <v>0.06066025315631612</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -6043,19 +6043,19 @@
         <v>21447</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13587</v>
+        <v>13391</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>31852</v>
+        <v>31894</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.032338775748247</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02048731392504935</v>
+        <v>0.0201921229232955</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04802867849191522</v>
+        <v>0.04809191195819564</v>
       </c>
     </row>
     <row r="21">
@@ -6147,19 +6147,19 @@
         <v>172701</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>152102</v>
+        <v>150421</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>194201</v>
+        <v>191822</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4629851934719734</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4077619901035725</v>
+        <v>0.4032549718631123</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5206221677641646</v>
+        <v>0.514244273603666</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>190</v>
@@ -6168,19 +6168,19 @@
         <v>199036</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>178598</v>
+        <v>179531</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>217186</v>
+        <v>218861</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5130697395377608</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4603838822159126</v>
+        <v>0.4627889713928261</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5598563347917286</v>
+        <v>0.5641723565107603</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>346</v>
@@ -6189,19 +6189,19 @@
         <v>371738</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>343917</v>
+        <v>340163</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>400115</v>
+        <v>398348</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4885183073606733</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4519575998454732</v>
+        <v>0.4470240559614168</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5258106347193552</v>
+        <v>0.5234888671100923</v>
       </c>
     </row>
     <row r="23">
@@ -6218,19 +6218,19 @@
         <v>88681</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>72247</v>
+        <v>72550</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>105606</v>
+        <v>106699</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2377399332162964</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1936832808250646</v>
+        <v>0.194496466797106</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2831137597526641</v>
+        <v>0.2860432312035558</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>91</v>
@@ -6239,19 +6239,19 @@
         <v>95293</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>78067</v>
+        <v>78753</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>113806</v>
+        <v>113163</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2456425862141685</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2012385329932991</v>
+        <v>0.2030063261706853</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2933667404386385</v>
+        <v>0.2917090088032925</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>174</v>
@@ -6260,19 +6260,19 @@
         <v>183974</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>160980</v>
+        <v>160954</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>207972</v>
+        <v>210113</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2417687076560707</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2115509868220781</v>
+        <v>0.2115178464296585</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2733067523562287</v>
+        <v>0.2761190429343443</v>
       </c>
     </row>
     <row r="24">
@@ -6289,19 +6289,19 @@
         <v>23495</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15870</v>
+        <v>15665</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34870</v>
+        <v>34758</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06298607649479578</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.042544766154111</v>
+        <v>0.04199504009516504</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09347991600562262</v>
+        <v>0.09318205099252413</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -6310,19 +6310,19 @@
         <v>25460</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16196</v>
+        <v>16771</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>37748</v>
+        <v>38628</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06563106886429726</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04174937796283284</v>
+        <v>0.04323269087922903</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09730504094990539</v>
+        <v>0.09957335133020545</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>46</v>
@@ -6331,19 +6331,19 @@
         <v>48955</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>35925</v>
+        <v>36055</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>65521</v>
+        <v>64941</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06433449425456771</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04721117401875428</v>
+        <v>0.0473818011924691</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08610414291818951</v>
+        <v>0.08534186300171848</v>
       </c>
     </row>
     <row r="25">
@@ -6360,19 +6360,19 @@
         <v>3013</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8368</v>
+        <v>8099</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008076535535646598</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002626915348396411</v>
+        <v>0.002605596182795761</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02243288588235437</v>
+        <v>0.02171342311488835</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -6381,19 +6381,19 @@
         <v>5936</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1884</v>
+        <v>2066</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13590</v>
+        <v>14612</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01530109141640244</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004857560179086774</v>
+        <v>0.005326113038767926</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0350331124162458</v>
+        <v>0.03766558377889179</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -6402,19 +6402,19 @@
         <v>8948</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3993</v>
+        <v>4016</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17836</v>
+        <v>18877</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0117596158985257</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005247250261896593</v>
+        <v>0.005277165325227155</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02343951989107759</v>
+        <v>0.02480714258322506</v>
       </c>
     </row>
     <row r="26">
@@ -6431,19 +6431,19 @@
         <v>85127</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>68883</v>
+        <v>70132</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>103535</v>
+        <v>102426</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2282122612812878</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1846658148029153</v>
+        <v>0.1880134080861976</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2775608451161229</v>
+        <v>0.2745891088467498</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -6452,19 +6452,19 @@
         <v>62207</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48575</v>
+        <v>48732</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>77440</v>
+        <v>80216</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.160355513967371</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1252160136884731</v>
+        <v>0.1256209478694739</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1996228955071561</v>
+        <v>0.2067791647668857</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>139</v>
@@ -6473,19 +6473,19 @@
         <v>147334</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>125455</v>
+        <v>126240</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>169720</v>
+        <v>170473</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1936188748301626</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1648660539532184</v>
+        <v>0.1658979329501311</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2230377428763047</v>
+        <v>0.2240261970735445</v>
       </c>
     </row>
     <row r="27">
@@ -6577,19 +6577,19 @@
         <v>53346</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>40865</v>
+        <v>40688</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>66094</v>
+        <v>67794</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2508987370410464</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1921982739891508</v>
+        <v>0.1913654206088715</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3108595942081113</v>
+        <v>0.3188553601686434</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>62</v>
@@ -6598,19 +6598,19 @@
         <v>65560</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>51972</v>
+        <v>53271</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>79808</v>
+        <v>79695</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2998429452069671</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2376978272567976</v>
+        <v>0.2436398756084935</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3650089699614593</v>
+        <v>0.3644933746812122</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>109</v>
@@ -6619,19 +6619,19 @@
         <v>118905</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>102327</v>
+        <v>100588</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>140316</v>
+        <v>138496</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.275712966245689</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2372725137219165</v>
+        <v>0.2332390086003326</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3253587774349801</v>
+        <v>0.3211384006512896</v>
       </c>
     </row>
     <row r="29">
@@ -6648,19 +6648,19 @@
         <v>87203</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>72883</v>
+        <v>73124</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>101293</v>
+        <v>102297</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4101375643372658</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3427889476338215</v>
+        <v>0.3439196270033431</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4764060500538439</v>
+        <v>0.4811290876930341</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>84</v>
@@ -6669,19 +6669,19 @@
         <v>86233</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>71926</v>
+        <v>72728</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>101719</v>
+        <v>101385</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3943953126616582</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3289617509997811</v>
+        <v>0.3326259063100624</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4652206671435606</v>
+        <v>0.4636929359749422</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>164</v>
@@ -6690,19 +6690,19 @@
         <v>173436</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>150579</v>
+        <v>154237</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>193189</v>
+        <v>195852</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.402156398517779</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3491553965620359</v>
+        <v>0.3576384513123697</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4479583305435397</v>
+        <v>0.4541332156630843</v>
       </c>
     </row>
     <row r="30">
@@ -6719,19 +6719,19 @@
         <v>59003</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>47122</v>
+        <v>46609</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>73923</v>
+        <v>72860</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2775089981066342</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2216294120204252</v>
+        <v>0.2192150254456325</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3476789269530824</v>
+        <v>0.3426782864220717</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>43</v>
@@ -6740,19 +6740,19 @@
         <v>44029</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>32658</v>
+        <v>33006</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>56408</v>
+        <v>57152</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2013681518833665</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1493657088900517</v>
+        <v>0.1509578151178713</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2579864601082651</v>
+        <v>0.2613907157908853</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>100</v>
@@ -6761,19 +6761,19 @@
         <v>103032</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>84354</v>
+        <v>86024</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>120902</v>
+        <v>122571</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2389063425357313</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.195595800045568</v>
+        <v>0.1994682412515525</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2803434277372253</v>
+        <v>0.2842131040491954</v>
       </c>
     </row>
     <row r="31">
@@ -6790,19 +6790,19 @@
         <v>3013</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8295</v>
+        <v>7983</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01417187850716044</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.004356474124880837</v>
+        <v>0.004364222178546853</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03901257779642342</v>
+        <v>0.03754496379073277</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -6811,19 +6811,19 @@
         <v>4701</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1804</v>
+        <v>1791</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9746</v>
+        <v>9627</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02149903574126697</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.008250762428235017</v>
+        <v>0.008189963227196596</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04457246708391256</v>
+        <v>0.0440279363120582</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -6832,19 +6832,19 @@
         <v>7714</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3717</v>
+        <v>3777</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>14615</v>
+        <v>15460</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01788667471776034</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.008619508467580542</v>
+        <v>0.008757143741652986</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03388878696249832</v>
+        <v>0.03584744300268684</v>
       </c>
     </row>
     <row r="32">
@@ -6861,19 +6861,19 @@
         <v>10053</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4655</v>
+        <v>5182</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17668</v>
+        <v>17830</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04728282200789318</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02189571818095297</v>
+        <v>0.02437067815867652</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08309618377229035</v>
+        <v>0.08385891472491194</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -6882,19 +6882,19 @@
         <v>18125</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10881</v>
+        <v>10351</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28680</v>
+        <v>27549</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08289455450674112</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04976531157040538</v>
+        <v>0.04734085416026892</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1311680924710235</v>
+        <v>0.1259964930953182</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>26</v>
@@ -6903,19 +6903,19 @@
         <v>28178</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18725</v>
+        <v>18766</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>40437</v>
+        <v>39324</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06533761798304043</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04341955161352447</v>
+        <v>0.04351419786016766</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09376342881264794</v>
+        <v>0.09118219454926879</v>
       </c>
     </row>
     <row r="33">
@@ -7007,19 +7007,19 @@
         <v>128546</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>111705</v>
+        <v>110470</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>146795</v>
+        <v>145670</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4691780816752867</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4077123563987569</v>
+        <v>0.4032018461368623</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.53578628936267</v>
+        <v>0.5316801651731466</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>151</v>
@@ -7028,19 +7028,19 @@
         <v>158998</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>141940</v>
+        <v>143036</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>174354</v>
+        <v>176108</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5721331458217873</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5107521820991854</v>
+        <v>0.5146962486075278</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6273882761177534</v>
+        <v>0.6337017015606139</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>274</v>
@@ -7049,19 +7049,19 @@
         <v>287544</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>262457</v>
+        <v>263804</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>311446</v>
+        <v>313129</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5210215684219662</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.475564210205852</v>
+        <v>0.4780056670225692</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5643312494704776</v>
+        <v>0.5673814213786711</v>
       </c>
     </row>
     <row r="35">
@@ -7078,19 +7078,19 @@
         <v>97860</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>81855</v>
+        <v>81418</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>114734</v>
+        <v>115566</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3571774279835508</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2987608134851775</v>
+        <v>0.2971674295019758</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4187680614725589</v>
+        <v>0.4218030752722303</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>76</v>
@@ -7099,19 +7099,19 @@
         <v>77816</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>63336</v>
+        <v>63139</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>93823</v>
+        <v>92829</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2800119788933138</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2279045257210788</v>
+        <v>0.2271969293362694</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3376110670218638</v>
+        <v>0.3340317081991732</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>170</v>
@@ -7120,19 +7120,19 @@
         <v>175676</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>151934</v>
+        <v>151956</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>197410</v>
+        <v>197506</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3183204181766441</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2753002086215917</v>
+        <v>0.275339911772111</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3577020755878851</v>
+        <v>0.3578752200771841</v>
       </c>
     </row>
     <row r="36">
@@ -7149,19 +7149,19 @@
         <v>37410</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>26651</v>
+        <v>27014</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>50780</v>
+        <v>51050</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1365413521034438</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09727450276650956</v>
+        <v>0.09859655470109713</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1853430120045333</v>
+        <v>0.1863252378077023</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>28</v>
@@ -7170,19 +7170,19 @@
         <v>28459</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>19195</v>
+        <v>19859</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>40027</v>
+        <v>39709</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1024074162082061</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06907013639739885</v>
+        <v>0.07145966565492094</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1440323990459051</v>
+        <v>0.1428870186119646</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>63</v>
@@ -7191,19 +7191,19 @@
         <v>65869</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>50657</v>
+        <v>51563</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>82931</v>
+        <v>82191</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1193530547829869</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09178931942121354</v>
+        <v>0.09343145593678155</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1502685322655377</v>
+        <v>0.148927974585764</v>
       </c>
     </row>
     <row r="37">
@@ -7220,19 +7220,19 @@
         <v>4137</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9524</v>
+        <v>9598</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01509830266852092</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003869126191310579</v>
+        <v>0.003831532450449877</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03476027451238593</v>
+        <v>0.03502999760032639</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4</v>
@@ -7241,19 +7241,19 @@
         <v>4070</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>9255</v>
+        <v>10136</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01464622363536394</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.003744174779367966</v>
+        <v>0.003773466308426854</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0333011569363393</v>
+        <v>0.03647279036314719</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>8</v>
@@ -7262,19 +7262,19 @@
         <v>8207</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3983</v>
+        <v>3986</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>15513</v>
+        <v>16074</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01487065623307628</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.007216447143983389</v>
+        <v>0.007222807485531084</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02810917391158308</v>
+        <v>0.02912573979932075</v>
       </c>
     </row>
     <row r="38">
@@ -7291,19 +7291,19 @@
         <v>6029</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>13324</v>
+        <v>14646</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02200483556919772</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.00739378123742528</v>
+        <v>0.007398344832968573</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04862950054362928</v>
+        <v>0.05345511079539163</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>8</v>
@@ -7312,19 +7312,19 @@
         <v>8560</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3801</v>
+        <v>3692</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>15700</v>
+        <v>15919</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03080123544132887</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01367622910792182</v>
+        <v>0.01328531411208603</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.05649262721096002</v>
+        <v>0.05728094844680419</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>13</v>
@@ -7333,19 +7333,19 @@
         <v>14589</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>7814</v>
+        <v>7729</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>24647</v>
+        <v>24885</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02643430238532641</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01415891032686959</v>
+        <v>0.01400445386859785</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04465955406335471</v>
+        <v>0.04509124259110517</v>
       </c>
     </row>
     <row r="39">
@@ -7437,19 +7437,19 @@
         <v>218302</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>193301</v>
+        <v>191352</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>242563</v>
+        <v>242398</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3293697110944794</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2916479392495794</v>
+        <v>0.2887075221630714</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3659729878737575</v>
+        <v>0.3657246404770998</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>275</v>
@@ -7458,19 +7458,19 @@
         <v>295515</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>270382</v>
+        <v>267851</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>323391</v>
+        <v>325286</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4276163698085854</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3912483215915031</v>
+        <v>0.3875857043354825</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4679529481673587</v>
+        <v>0.4706951010845369</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>480</v>
@@ -7479,19 +7479,19 @@
         <v>513818</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>468627</v>
+        <v>477007</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>548769</v>
+        <v>550042</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3795194385563772</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3461403062667869</v>
+        <v>0.352330243808829</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4053353044994776</v>
+        <v>0.4062756512246799</v>
       </c>
     </row>
     <row r="41">
@@ -7508,19 +7508,19 @@
         <v>231890</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>206575</v>
+        <v>208332</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>260499</v>
+        <v>261610</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3498703428372624</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3116751535675422</v>
+        <v>0.3143262303956711</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3930347678618089</v>
+        <v>0.3947112579744504</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>180</v>
@@ -7529,19 +7529,19 @@
         <v>195080</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>170031</v>
+        <v>170474</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>218909</v>
+        <v>219861</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2822847185673542</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2460376003473781</v>
+        <v>0.2466796373101553</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3167651908306006</v>
+        <v>0.3181425122785955</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>400</v>
@@ -7550,19 +7550,19 @@
         <v>426970</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>392835</v>
+        <v>392443</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>467839</v>
+        <v>465244</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3153714531870693</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2901586711400171</v>
+        <v>0.2898691188411235</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3455583114524262</v>
+        <v>0.3436416791962865</v>
       </c>
     </row>
     <row r="42">
@@ -7579,19 +7579,19 @@
         <v>140701</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>118881</v>
+        <v>119360</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>162456</v>
+        <v>163843</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2122870864212213</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1793645870236215</v>
+        <v>0.1800880559031637</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2451094943203387</v>
+        <v>0.247202719977715</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>107</v>
@@ -7600,19 +7600,19 @@
         <v>118693</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>97407</v>
+        <v>99393</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>139742</v>
+        <v>140269</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1717504797723971</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1409496361337611</v>
+        <v>0.1438242171147295</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2022099937946231</v>
+        <v>0.2029716370255849</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>239</v>
@@ -7621,19 +7621,19 @@
         <v>259394</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>231072</v>
+        <v>229925</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>287871</v>
+        <v>290700</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1915952908703482</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1706759465934924</v>
+        <v>0.1698288268787786</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2126292838876746</v>
+        <v>0.2147189212553754</v>
       </c>
     </row>
     <row r="43">
@@ -7650,19 +7650,19 @@
         <v>30918</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>19918</v>
+        <v>20211</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>44473</v>
+        <v>44187</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.0466490694495843</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03005205267623564</v>
+        <v>0.03049331560269782</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06709994568538277</v>
+        <v>0.06666909448818903</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>27</v>
@@ -7671,19 +7671,19 @@
         <v>28430</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>19033</v>
+        <v>20247</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>39790</v>
+        <v>41720</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04113848396936114</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02754109772935431</v>
+        <v>0.02929745121314935</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05757665068524206</v>
+        <v>0.06036906003559974</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>53</v>
@@ -7692,19 +7692,19 @@
         <v>59348</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>44582</v>
+        <v>45215</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>78066</v>
+        <v>76676</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04383620676696764</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03292953577872869</v>
+        <v>0.03339727125492985</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05766151995688346</v>
+        <v>0.05663530010577787</v>
       </c>
     </row>
     <row r="44">
@@ -7721,19 +7721,19 @@
         <v>40976</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>28484</v>
+        <v>28979</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>55684</v>
+        <v>55862</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.06182379019745254</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04297653593962097</v>
+        <v>0.04372333787496559</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08401527045350568</v>
+        <v>0.08428327287463067</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>45</v>
@@ -7742,19 +7742,19 @@
         <v>53358</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>38058</v>
+        <v>39468</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>69417</v>
+        <v>70074</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.07720994788230216</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.05507009801090652</v>
+        <v>0.05711102739513342</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1004480584492624</v>
+        <v>0.1013984270473075</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>80</v>
@@ -7763,19 +7763,19 @@
         <v>94334</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>75438</v>
+        <v>74575</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>116050</v>
+        <v>115940</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.06967761061923761</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.05572075903998966</v>
+        <v>0.05508295222675361</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08571743922651222</v>
+        <v>0.08563608034725076</v>
       </c>
     </row>
     <row r="45">
@@ -7867,19 +7867,19 @@
         <v>168627</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>144873</v>
+        <v>146445</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>193839</v>
+        <v>192664</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2169863083113777</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1864205919405148</v>
+        <v>0.1884432341829305</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2494280377675279</v>
+        <v>0.2479169774263554</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>159</v>
@@ -7888,19 +7888,19 @@
         <v>176812</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>152675</v>
+        <v>153913</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>201512</v>
+        <v>205008</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2162789615792226</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.186754515537229</v>
+        <v>0.1882695604689765</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2464936018476913</v>
+        <v>0.2507692068099359</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>314</v>
@@ -7909,19 +7909,19 @@
         <v>345439</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>313131</v>
+        <v>312858</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>380680</v>
+        <v>382766</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.216623678162282</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1963638558474888</v>
+        <v>0.1961923432431661</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2387235617950992</v>
+        <v>0.2400318912002148</v>
       </c>
     </row>
     <row r="47">
@@ -7938,19 +7938,19 @@
         <v>282384</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>255601</v>
+        <v>254273</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>307297</v>
+        <v>309262</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3633662632940108</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3289034805498897</v>
+        <v>0.3271945740576188</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3954245778929305</v>
+        <v>0.3979525823338151</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>294</v>
@@ -7959,19 +7959,19 @@
         <v>316583</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>286779</v>
+        <v>285528</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>343773</v>
+        <v>343418</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3872501317549369</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3507927749877262</v>
+        <v>0.3492632844800199</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4205086901699885</v>
+        <v>0.4200748034258848</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>559</v>
@@ -7980,19 +7980,19 @@
         <v>598967</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>559821</v>
+        <v>561795</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>639419</v>
+        <v>639279</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3756106271784378</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3510626079296065</v>
+        <v>0.3523000636951887</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4009782212760789</v>
+        <v>0.4008904131388096</v>
       </c>
     </row>
     <row r="48">
@@ -8009,19 +8009,19 @@
         <v>150966</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>128396</v>
+        <v>128125</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>176738</v>
+        <v>175928</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1942601548953436</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.165217574699623</v>
+        <v>0.1648688007090278</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2274237382865253</v>
+        <v>0.2263813994899931</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>158</v>
@@ -8030,19 +8030,19 @@
         <v>170702</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>148005</v>
+        <v>146981</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>197373</v>
+        <v>193800</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2088056784343355</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1810418916915789</v>
+        <v>0.1797903156499393</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2414306527702684</v>
+        <v>0.2370598290350624</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>293</v>
@@ -8051,19 +8051,19 @@
         <v>321668</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>288043</v>
+        <v>287918</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>354894</v>
+        <v>356100</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2017170994599265</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1806307973846323</v>
+        <v>0.1805529991969841</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.222552880132585</v>
+        <v>0.2233096640016321</v>
       </c>
     </row>
     <row r="49">
@@ -8080,19 +8080,19 @@
         <v>22706</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>14253</v>
+        <v>14855</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>34244</v>
+        <v>33617</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02921747006999027</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01833995367173473</v>
+        <v>0.0191150333878947</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04406412153648933</v>
+        <v>0.04325832273271262</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>28</v>
@@ -8101,19 +8101,19 @@
         <v>30847</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>21050</v>
+        <v>20491</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>44045</v>
+        <v>43647</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.0377331521104121</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.02574830006823315</v>
+        <v>0.02506491151377687</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.05387690433625148</v>
+        <v>0.05338952680881537</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>50</v>
@@ -8122,19 +8122,19 @@
         <v>53553</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>40608</v>
+        <v>40728</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>70389</v>
+        <v>69848</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.03358314097450008</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.02546526919287912</v>
+        <v>0.02554022852063958</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.04414058346110041</v>
+        <v>0.043801494478576</v>
       </c>
     </row>
     <row r="50">
@@ -8151,19 +8151,19 @@
         <v>152450</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>130556</v>
+        <v>130968</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>178361</v>
+        <v>178269</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1961698034292777</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1679971564513582</v>
+        <v>0.1685267738032647</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2295115208828776</v>
+        <v>0.2293940905038425</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>113</v>
@@ -8172,19 +8172,19 @@
         <v>122572</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>103408</v>
+        <v>103440</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>144959</v>
+        <v>144835</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1499320761210929</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1264908465348422</v>
+        <v>0.1265300504254829</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1773162023234203</v>
+        <v>0.1771652487272852</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>251</v>
@@ -8193,19 +8193,19 @@
         <v>275022</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>244285</v>
+        <v>245516</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>305879</v>
+        <v>311537</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1724654542248536</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1531905826620751</v>
+        <v>0.1539625119991417</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1918157866712246</v>
+        <v>0.1953642263565176</v>
       </c>
     </row>
     <row r="51">
@@ -8297,19 +8297,19 @@
         <v>1182777</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1129782</v>
+        <v>1121264</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>1239178</v>
+        <v>1241585</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.3458246646623953</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.330329741402027</v>
+        <v>0.327839336038084</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.3623153574557287</v>
+        <v>0.363019126350519</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>1323</v>
@@ -8318,19 +8318,19 @@
         <v>1428954</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1364636</v>
+        <v>1372663</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>1486468</v>
+        <v>1491309</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.4036778630850485</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.3855081284583264</v>
+        <v>0.3877757735430021</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.4199254347745292</v>
+        <v>0.4212932324227387</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>2421</v>
@@ -8339,19 +8339,19 @@
         <v>2611731</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>2521136</v>
+        <v>2526735</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>2701031</v>
+        <v>2693354</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.3752486427889811</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.3622320841855491</v>
+        <v>0.36303659728223</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.3880790413123228</v>
+        <v>0.3869761573852544</v>
       </c>
     </row>
     <row r="53">
@@ -8368,19 +8368,19 @@
         <v>1125739</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1070633</v>
+        <v>1067554</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1187937</v>
+        <v>1182451</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.3291477384162402</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.3130355049761751</v>
+        <v>0.3121352679756363</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.3473334826982661</v>
+        <v>0.345729234450667</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>992</v>
@@ -8389,19 +8389,19 @@
         <v>1063522</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>1004942</v>
+        <v>1005550</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>1120110</v>
+        <v>1116489</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.3004437227473817</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2838950574859589</v>
+        <v>0.2840667682052607</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.3164299002251754</v>
+        <v>0.3154068654904033</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>2060</v>
@@ -8410,19 +8410,19 @@
         <v>2189261</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>2111394</v>
+        <v>2110386</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>2275510</v>
+        <v>2271583</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.3145489547324852</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.3033611814879836</v>
+        <v>0.303216376698882</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.3269409817064404</v>
+        <v>0.326376776713329</v>
       </c>
     </row>
     <row r="54">
@@ -8439,19 +8439,19 @@
         <v>641187</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>596775</v>
+        <v>596425</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>686906</v>
+        <v>689125</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1874726475027081</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1744872700588718</v>
+        <v>0.1743848334377899</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2008401706842722</v>
+        <v>0.201488895435769</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>555</v>
@@ -8460,19 +8460,19 @@
         <v>601275</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>552965</v>
+        <v>552844</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>643265</v>
+        <v>644950</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1698594262713763</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1562119536094292</v>
+        <v>0.1561778493066819</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1817215342141155</v>
+        <v>0.1821976926337774</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1167</v>
@@ -8481,19 +8481,19 @@
         <v>1242462</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1178239</v>
+        <v>1176226</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1309216</v>
+        <v>1308005</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.178514611467029</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1692871196407516</v>
+        <v>0.1689979437325887</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1881057436850593</v>
+        <v>0.1879316652424283</v>
       </c>
     </row>
     <row r="55">
@@ -8510,19 +8510,19 @@
         <v>87659</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>70770</v>
+        <v>68318</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>110326</v>
+        <v>105027</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.02563004488953345</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.02069192477920714</v>
+        <v>0.01997506935699362</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.03225761958853558</v>
+        <v>0.03070822722139702</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>87</v>
@@ -8531,19 +8531,19 @@
         <v>93038</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>76068</v>
+        <v>74849</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>119153</v>
+        <v>114415</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.02628305790689645</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.02148906831282539</v>
+        <v>0.02114481488088762</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.03366071715841504</v>
+        <v>0.03232221123898226</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>169</v>
@@ -8552,19 +8552,19 @@
         <v>180697</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>152513</v>
+        <v>154711</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>210513</v>
+        <v>210614</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.02596216552007997</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.02191283494216852</v>
+        <v>0.02222861492692229</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.03024614337478056</v>
+        <v>0.03026057178234674</v>
       </c>
     </row>
     <row r="56">
@@ -8581,19 +8581,19 @@
         <v>382802</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>345291</v>
+        <v>345345</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>422613</v>
+        <v>426007</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1119249045291229</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1009573519830866</v>
+        <v>0.1009733108895158</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1235649941364001</v>
+        <v>0.1245574675651264</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>325</v>
@@ -8602,19 +8602,19 @@
         <v>353049</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>316207</v>
+        <v>315986</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>393318</v>
+        <v>391926</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.09973592998929708</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.08932802467961544</v>
+        <v>0.08926557621437088</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1111117895183922</v>
+        <v>0.1107185796640801</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>667</v>
@@ -8623,19 +8623,19 @@
         <v>735850</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>687436</v>
+        <v>684120</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>794441</v>
+        <v>791710</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1057256254914248</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.0987695142347871</v>
+        <v>0.09829314541114481</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1141437684741541</v>
+        <v>0.1137514886496517</v>
       </c>
     </row>
     <row r="57">
@@ -8971,19 +8971,19 @@
         <v>130375</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>113285</v>
+        <v>110237</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>147524</v>
+        <v>146659</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4438130473188895</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3856362524310655</v>
+        <v>0.3752620197602001</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5021905306652142</v>
+        <v>0.4992446759549733</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -8992,19 +8992,19 @@
         <v>146410</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>129255</v>
+        <v>126472</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>164795</v>
+        <v>162754</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5089395397897648</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4493080956639967</v>
+        <v>0.4396318001462494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5728491678395201</v>
+        <v>0.5657553643997373</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>257</v>
@@ -9013,19 +9013,19 @@
         <v>276785</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>250819</v>
+        <v>249770</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>301076</v>
+        <v>300025</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4760355279816283</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4313773095768333</v>
+        <v>0.4295740209965239</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5178129170298077</v>
+        <v>0.5160054220293453</v>
       </c>
     </row>
     <row r="5">
@@ -9042,19 +9042,19 @@
         <v>73821</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>58593</v>
+        <v>58339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90277</v>
+        <v>89798</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.251294540116375</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1994578036000271</v>
+        <v>0.1985925310908898</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3073158473066011</v>
+        <v>0.3056841555760002</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -9063,19 +9063,19 @@
         <v>66245</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52709</v>
+        <v>52427</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82834</v>
+        <v>81311</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2302777948590272</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1832232706462127</v>
+        <v>0.182241626455755</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2879435279311862</v>
+        <v>0.2826466177816864</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>133</v>
@@ -9084,19 +9084,19 @@
         <v>140066</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117415</v>
+        <v>119868</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>162574</v>
+        <v>163426</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2408961347677153</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2019397425489547</v>
+        <v>0.2061585976182948</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2796075849477117</v>
+        <v>0.2810733778594149</v>
       </c>
     </row>
     <row r="6">
@@ -9113,19 +9113,19 @@
         <v>55496</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42608</v>
+        <v>43507</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>71468</v>
+        <v>72017</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1889143010485329</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1450441907140103</v>
+        <v>0.1481041504176126</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2432849639273151</v>
+        <v>0.2451562022167549</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>46</v>
@@ -9134,19 +9134,19 @@
         <v>46650</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>34793</v>
+        <v>34918</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>60241</v>
+        <v>59953</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1621613833294233</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1209444790770001</v>
+        <v>0.1213783256563359</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.20940650461403</v>
+        <v>0.2084035596177649</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>95</v>
@@ -9155,19 +9155,19 @@
         <v>102146</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>83094</v>
+        <v>85048</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>121359</v>
+        <v>121669</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1756778232163917</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1429121428311275</v>
+        <v>0.1462729017556869</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2087217808665543</v>
+        <v>0.2092553938969192</v>
       </c>
     </row>
     <row r="7">
@@ -9184,19 +9184,19 @@
         <v>9346</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4791</v>
+        <v>4297</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17623</v>
+        <v>16828</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03181630847501672</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01630787053988136</v>
+        <v>0.01462802760344135</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05999219698250472</v>
+        <v>0.05728626914228285</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -9205,19 +9205,19 @@
         <v>3798</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10139</v>
+        <v>9502</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01320191539770504</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003195570215054476</v>
+        <v>0.003255652887168683</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03524437626637111</v>
+        <v>0.0330317791683314</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -9226,19 +9226,19 @@
         <v>13144</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7063</v>
+        <v>7253</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20607</v>
+        <v>22556</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02260650923317166</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01214778659450926</v>
+        <v>0.01247505268344688</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0354412135263289</v>
+        <v>0.03879417412648659</v>
       </c>
     </row>
     <row r="8">
@@ -9255,19 +9255,19 @@
         <v>24723</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16149</v>
+        <v>16272</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36181</v>
+        <v>37717</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08416180304118598</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05497346977703311</v>
+        <v>0.05539102436434357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1231642479274094</v>
+        <v>0.1283934337632795</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -9276,19 +9276,19 @@
         <v>24573</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15898</v>
+        <v>16088</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>35195</v>
+        <v>36630</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08541936662407963</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05526472807078286</v>
+        <v>0.05592371822049221</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.12234388720336</v>
+        <v>0.1273324579280245</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>44</v>
@@ -9297,19 +9297,19 @@
         <v>49297</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>36393</v>
+        <v>36370</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65759</v>
+        <v>65117</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08478400480109308</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06259067898509345</v>
+        <v>0.06255156633481906</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1130977357290533</v>
+        <v>0.111993608505796</v>
       </c>
     </row>
     <row r="9">
@@ -9401,19 +9401,19 @@
         <v>169461</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>148995</v>
+        <v>147746</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191654</v>
+        <v>190075</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3378934334700204</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2970871017874978</v>
+        <v>0.2945964259709093</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3821455973086887</v>
+        <v>0.3789968359325959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>160</v>
@@ -9422,19 +9422,19 @@
         <v>179563</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>155732</v>
+        <v>157277</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>201747</v>
+        <v>201514</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3440280607646846</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2983709512286485</v>
+        <v>0.3013303815825598</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3865323780103444</v>
+        <v>0.3860856398744938</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>318</v>
@@ -9443,19 +9443,19 @@
         <v>349023</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>319965</v>
+        <v>317337</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>380169</v>
+        <v>379433</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3410219497957726</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3126295172369147</v>
+        <v>0.3100616666253136</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.371454060234234</v>
+        <v>0.3707341906770526</v>
       </c>
     </row>
     <row r="11">
@@ -9472,19 +9472,19 @@
         <v>256288</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>236451</v>
+        <v>232549</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>281749</v>
+        <v>277905</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5110221870394038</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4714680303337172</v>
+        <v>0.4636879904862408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5617899387523899</v>
+        <v>0.554124759495352</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>247</v>
@@ -9493,19 +9493,19 @@
         <v>264796</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240629</v>
+        <v>241022</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>288612</v>
+        <v>286640</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.507327630136355</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4610254659279579</v>
+        <v>0.4617791586809717</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5529581338309062</v>
+        <v>0.5491800641797889</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>490</v>
@@ -9514,19 +9514,19 @@
         <v>521084</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>487508</v>
+        <v>490192</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>552321</v>
+        <v>553843</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5091380494981286</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4763319425881792</v>
+        <v>0.4789541862223137</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5396590867130634</v>
+        <v>0.5411457458628898</v>
       </c>
     </row>
     <row r="12">
@@ -9543,19 +9543,19 @@
         <v>64338</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>51299</v>
+        <v>49750</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>82165</v>
+        <v>79245</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1282851883661832</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1022859205995126</v>
+        <v>0.09919823489750783</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.16383196146071</v>
+        <v>0.1580099792624878</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>71</v>
@@ -9564,19 +9564,19 @@
         <v>72514</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>58661</v>
+        <v>57752</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>89987</v>
+        <v>88499</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1389320919399472</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.112390689384348</v>
+        <v>0.1106475535554104</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1724076969934967</v>
+        <v>0.1695576223561046</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>133</v>
@@ -9585,19 +9585,19 @@
         <v>136852</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>115392</v>
+        <v>116225</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>159791</v>
+        <v>160010</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1337148599744652</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1127466737588578</v>
+        <v>0.1135608955730867</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1561276707191772</v>
+        <v>0.1563417028659959</v>
       </c>
     </row>
     <row r="13">
@@ -9614,19 +9614,19 @@
         <v>7227</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3029</v>
+        <v>3038</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14591</v>
+        <v>15041</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01440993417011635</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006038642880513164</v>
+        <v>0.006057785637962619</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02909440118072021</v>
+        <v>0.02999018319433173</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -9635,19 +9635,19 @@
         <v>2934</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>948</v>
+        <v>391</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7769</v>
+        <v>7776</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005620717605981265</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001816217222858088</v>
+        <v>0.0007488927721115915</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01488434768915868</v>
+        <v>0.01489804451312579</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -9656,19 +9656,19 @@
         <v>10161</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5377</v>
+        <v>5185</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18686</v>
+        <v>18303</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009927639453469939</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005253605608089389</v>
+        <v>0.005065804656053369</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0182577697031189</v>
+        <v>0.01788303063009234</v>
       </c>
     </row>
     <row r="14">
@@ -9685,19 +9685,19 @@
         <v>4207</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9677</v>
+        <v>9509</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00838925695427622</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002141218402802933</v>
+        <v>0.002136444596369335</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01929504875189676</v>
+        <v>0.01896103773125942</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7502</v>
+        <v>6899</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004091499553031948</v>
@@ -9718,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01437246405592704</v>
+        <v>0.01321845318126184</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -9727,19 +9727,19 @@
         <v>6343</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2291</v>
+        <v>2989</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13462</v>
+        <v>13721</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006197501278163704</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002238678289466507</v>
+        <v>0.002920028283592257</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01315355158153523</v>
+        <v>0.01340693048117324</v>
       </c>
     </row>
     <row r="15">
@@ -9831,19 +9831,19 @@
         <v>28778</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19842</v>
+        <v>20128</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39488</v>
+        <v>39299</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09061131886763968</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06247511094684854</v>
+        <v>0.06337480627576463</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1243325275271094</v>
+        <v>0.1237374678675435</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -9852,19 +9852,19 @@
         <v>43056</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32575</v>
+        <v>30706</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57000</v>
+        <v>56655</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1280244704390467</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09686017310942152</v>
+        <v>0.09130407768163479</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1694870986715703</v>
+        <v>0.1684611607758797</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -9873,19 +9873,19 @@
         <v>71834</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57026</v>
+        <v>57362</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>90283</v>
+        <v>88527</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1098530656299898</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08720818266252793</v>
+        <v>0.0877221875949689</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.138066066284753</v>
+        <v>0.1353805231491686</v>
       </c>
     </row>
     <row r="17">
@@ -9902,19 +9902,19 @@
         <v>131535</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>114793</v>
+        <v>115007</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>148414</v>
+        <v>148175</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4141528868164185</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3614386146954024</v>
+        <v>0.3621129296238195</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4672960990024677</v>
+        <v>0.4665450565355967</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>135</v>
@@ -9923,19 +9923,19 @@
         <v>138863</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>120939</v>
+        <v>120958</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>157701</v>
+        <v>156158</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4129027587509799</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3596062343566292</v>
+        <v>0.3596641663286945</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4689163954800101</v>
+        <v>0.464329875974703</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>278</v>
@@ -9944,19 +9944,19 @@
         <v>270398</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>243889</v>
+        <v>245220</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>296026</v>
+        <v>297110</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4135099405088944</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3729709712508528</v>
+        <v>0.3750055840718263</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4527018536227982</v>
+        <v>0.4543590119879239</v>
       </c>
     </row>
     <row r="18">
@@ -9973,19 +9973,19 @@
         <v>145288</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>129564</v>
+        <v>128777</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>163342</v>
+        <v>161079</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4574543005913508</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4079459930474834</v>
+        <v>0.4054685264565152</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5143007649108806</v>
+        <v>0.5071737615091643</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>144</v>
@@ -9994,19 +9994,19 @@
         <v>142230</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>123085</v>
+        <v>124902</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>160971</v>
+        <v>159304</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4229154600575457</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3659867325497156</v>
+        <v>0.3713901145649243</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4786402433688171</v>
+        <v>0.4736849141127982</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>293</v>
@@ -10015,19 +10015,19 @@
         <v>287518</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>263470</v>
+        <v>261826</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>313471</v>
+        <v>314214</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4396908245113356</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4029152662832278</v>
+        <v>0.4004007532367613</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4793797499260435</v>
+        <v>0.4805155548515888</v>
       </c>
     </row>
     <row r="19">
@@ -10044,19 +10044,19 @@
         <v>9813</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5097</v>
+        <v>4852</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18026</v>
+        <v>17943</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03089736063587356</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01604776162972648</v>
+        <v>0.01527680816534548</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05675803212255913</v>
+        <v>0.05649587676601313</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -10065,19 +10065,19 @@
         <v>6471</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2769</v>
+        <v>2373</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13486</v>
+        <v>14008</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0192401251285581</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008232719006180837</v>
+        <v>0.007055485025454751</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0401009698425829</v>
+        <v>0.04165089032996451</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -10086,19 +10086,19 @@
         <v>16284</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9322</v>
+        <v>9336</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25764</v>
+        <v>25916</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02490199365502114</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01425507291406737</v>
+        <v>0.01427703748860278</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03940066119968096</v>
+        <v>0.03963275747245475</v>
       </c>
     </row>
     <row r="20">
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7185</v>
+        <v>7300</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006884133088717446</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02262203716455436</v>
+        <v>0.02298418044202121</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -10136,19 +10136,19 @@
         <v>5689</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2145</v>
+        <v>1857</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13042</v>
+        <v>12135</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01691718562386969</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006378120473704568</v>
+        <v>0.005521284077789867</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03877914971250272</v>
+        <v>0.03608213928030788</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -10157,19 +10157,19 @@
         <v>7876</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3406</v>
+        <v>3272</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15913</v>
+        <v>15508</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01204417569475911</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005208543587956359</v>
+        <v>0.005003030862454008</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02433499809336342</v>
+        <v>0.0237159024942358</v>
       </c>
     </row>
     <row r="21">
@@ -10261,19 +10261,19 @@
         <v>259728</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>240832</v>
+        <v>240731</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>274994</v>
+        <v>275225</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7038742220333085</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6526660095727836</v>
+        <v>0.6523913814109434</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7452455173372853</v>
+        <v>0.7458704730326786</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>270</v>
@@ -10282,19 +10282,19 @@
         <v>295984</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>278348</v>
+        <v>279276</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>312302</v>
+        <v>312834</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7642584804548394</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7187192839217369</v>
+        <v>0.7211173354521685</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8063926221593961</v>
+        <v>0.8077668879015348</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>519</v>
@@ -10303,19 +10303,19 @@
         <v>555712</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>529728</v>
+        <v>530305</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>578289</v>
+        <v>578586</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7347963241903874</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7004376066906893</v>
+        <v>0.7012008195298928</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7646480437388686</v>
+        <v>0.7650416434800458</v>
       </c>
     </row>
     <row r="23">
@@ -10332,19 +10332,19 @@
         <v>59078</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>44901</v>
+        <v>46946</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>73501</v>
+        <v>74899</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1601040310945366</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1216845498227017</v>
+        <v>0.127224551229776</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1991907828953781</v>
+        <v>0.202978445294896</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>46</v>
@@ -10353,19 +10353,19 @@
         <v>46953</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>35440</v>
+        <v>36063</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>61295</v>
+        <v>61290</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1212367137206622</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09150909756480227</v>
+        <v>0.09311809158605951</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1582693834173551</v>
+        <v>0.1582555745697966</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>102</v>
@@ -10374,19 +10374,19 @@
         <v>106031</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>87659</v>
+        <v>88507</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>124969</v>
+        <v>126003</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1402005133595567</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1159074333137553</v>
+        <v>0.1170297472064888</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1652412123924545</v>
+        <v>0.1666084217856513</v>
       </c>
     </row>
     <row r="24">
@@ -10403,19 +10403,19 @@
         <v>29413</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20093</v>
+        <v>19337</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>41640</v>
+        <v>40970</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07971128167018374</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05445166735316174</v>
+        <v>0.05240494404429967</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1128473023376792</v>
+        <v>0.1110293036309266</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>24</v>
@@ -10424,19 +10424,19 @@
         <v>25328</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15944</v>
+        <v>17211</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36620</v>
+        <v>37204</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0653996915231661</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04116948771362764</v>
+        <v>0.044439191464414</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09455549593850426</v>
+        <v>0.09606537848558039</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>52</v>
@@ -10445,19 +10445,19 @@
         <v>54741</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>40560</v>
+        <v>41620</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>70537</v>
+        <v>72326</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07238247671133162</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05363109904343327</v>
+        <v>0.05503309255626179</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09326828117187093</v>
+        <v>0.09563411251940064</v>
       </c>
     </row>
     <row r="25">
@@ -10474,19 +10474,19 @@
         <v>5760</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1988</v>
+        <v>2049</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11451</v>
+        <v>12433</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01560928732978917</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005387677431950653</v>
+        <v>0.005551980093246981</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03103380709285013</v>
+        <v>0.03369504321226276</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -10495,19 +10495,19 @@
         <v>2748</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7422</v>
+        <v>7257</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007096287538533492</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002258117265780303</v>
+        <v>0.002250536341038098</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01916438518903409</v>
+        <v>0.01873898193747197</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -10516,19 +10516,19 @@
         <v>8508</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3903</v>
+        <v>4566</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15198</v>
+        <v>16285</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01124987552132126</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005160580380651631</v>
+        <v>0.006037085525656035</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02009569474538672</v>
+        <v>0.02153282837530878</v>
       </c>
     </row>
     <row r="26">
@@ -10545,19 +10545,19 @@
         <v>15019</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8544</v>
+        <v>8082</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25155</v>
+        <v>23983</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04070117787218193</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02315393556227657</v>
+        <v>0.0219030012966543</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06817094803173046</v>
+        <v>0.06499538625772221</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -10566,19 +10566,19 @@
         <v>16269</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9834</v>
+        <v>9952</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>28324</v>
+        <v>25919</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04200882676279886</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02539171174906447</v>
+        <v>0.02569728764755411</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07313515568511234</v>
+        <v>0.06692425964726945</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -10587,19 +10587,19 @@
         <v>31288</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>21484</v>
+        <v>20385</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>45264</v>
+        <v>42636</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04137081021740304</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02840695089234213</v>
+        <v>0.026954653421581</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05985110648440136</v>
+        <v>0.05637635560812138</v>
       </c>
     </row>
     <row r="27">
@@ -10691,19 +10691,19 @@
         <v>72186</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>58792</v>
+        <v>59633</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>85597</v>
+        <v>88219</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.341753839126761</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2783444389248761</v>
+        <v>0.2823256784185246</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4052469350424383</v>
+        <v>0.4176603390859541</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>87</v>
@@ -10712,19 +10712,19 @@
         <v>85559</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>70378</v>
+        <v>71345</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>99566</v>
+        <v>99736</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.391417243381416</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.321967004090408</v>
+        <v>0.3263917199310097</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4554967758912419</v>
+        <v>0.4562777410931482</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>161</v>
@@ -10733,19 +10733,19 @@
         <v>157744</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>138976</v>
+        <v>136948</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>178016</v>
+        <v>177228</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3670111042074269</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3233440000278841</v>
+        <v>0.3186263741567825</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4141745043387879</v>
+        <v>0.4123411072385869</v>
       </c>
     </row>
     <row r="29">
@@ -10762,19 +10762,19 @@
         <v>92148</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>78088</v>
+        <v>77925</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>107007</v>
+        <v>107705</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.436264291447377</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3696989215810666</v>
+        <v>0.3689249104155146</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.506609899659578</v>
+        <v>0.5099170489086887</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>89</v>
@@ -10783,19 +10783,19 @@
         <v>86415</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>72669</v>
+        <v>71947</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>100936</v>
+        <v>99760</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3953324227318176</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3324490871824197</v>
+        <v>0.3291460944059648</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4617652739878764</v>
+        <v>0.4563865833108448</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>179</v>
@@ -10804,19 +10804,19 @@
         <v>178563</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>159300</v>
+        <v>159191</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>200002</v>
+        <v>200092</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4154476141794469</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3706316504953943</v>
+        <v>0.370376985620676</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4653298575300742</v>
+        <v>0.4655374549539156</v>
       </c>
     </row>
     <row r="30">
@@ -10833,19 +10833,19 @@
         <v>29356</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20798</v>
+        <v>20561</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>41106</v>
+        <v>40762</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1389810665312799</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09846733695605255</v>
+        <v>0.09734483093247069</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1946108021029594</v>
+        <v>0.1929820659635749</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>36</v>
@@ -10854,19 +10854,19 @@
         <v>35253</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>26230</v>
+        <v>26198</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>47191</v>
+        <v>47181</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1612787314263435</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1199997654815343</v>
+        <v>0.1198495438991438</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2158895793698933</v>
+        <v>0.2158453400098222</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>66</v>
@@ -10875,19 +10875,19 @@
         <v>64609</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>51735</v>
+        <v>50977</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>79259</v>
+        <v>80059</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1503209664311481</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1203684811291754</v>
+        <v>0.1186031428462345</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1844061571174923</v>
+        <v>0.1862673970425175</v>
       </c>
     </row>
     <row r="31">
@@ -10904,19 +10904,19 @@
         <v>3836</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9777</v>
+        <v>10077</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01816080260826557</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.004718289523635809</v>
+        <v>0.00472287329496612</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0462878942083628</v>
+        <v>0.04770851755018859</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -10928,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5267</v>
+        <v>5914</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004815305705770398</v>
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02409792033528126</v>
+        <v>0.02705633439423236</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -10946,19 +10946,19 @@
         <v>4889</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1065</v>
+        <v>1880</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10176</v>
+        <v>10676</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.011373697335112</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.002478868202190486</v>
+        <v>0.004374953834436434</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02367611527395257</v>
+        <v>0.02483896650413657</v>
       </c>
     </row>
     <row r="32">
@@ -10975,19 +10975,19 @@
         <v>13696</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7557</v>
+        <v>7569</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>22849</v>
+        <v>22629</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06484000028631658</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03578003771553936</v>
+        <v>0.03583243615015928</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1081745001807037</v>
+        <v>0.1071342857933996</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>10</v>
@@ -10996,19 +10996,19 @@
         <v>10308</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5683</v>
+        <v>5238</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>19350</v>
+        <v>18515</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04715629675465247</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02599861015527599</v>
+        <v>0.0239612494505809</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.088524033326478</v>
+        <v>0.08470476553547081</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>24</v>
@@ -11017,19 +11017,19 @@
         <v>24003</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>15674</v>
+        <v>15197</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>34306</v>
+        <v>34522</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05584661784686603</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03646681500727172</v>
+        <v>0.03535855406494975</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.079816691135284</v>
+        <v>0.08031927768631643</v>
       </c>
     </row>
     <row r="33">
@@ -11121,19 +11121,19 @@
         <v>68488</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>54015</v>
+        <v>54929</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>83848</v>
+        <v>83866</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2621818460977806</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2067760498822448</v>
+        <v>0.2102759643195989</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3209796055017807</v>
+        <v>0.3210506266340968</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>57</v>
@@ -11142,19 +11142,19 @@
         <v>63129</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>50062</v>
+        <v>48965</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>79348</v>
+        <v>78123</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2329234948174803</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1847127818239374</v>
+        <v>0.180663801404412</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2927671942861012</v>
+        <v>0.2882497423394065</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>123</v>
@@ -11163,19 +11163,19 @@
         <v>131617</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>109834</v>
+        <v>112225</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>152558</v>
+        <v>150461</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2472832691630013</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2063579693191441</v>
+        <v>0.2108489132140706</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2866266347566934</v>
+        <v>0.2826883558965848</v>
       </c>
     </row>
     <row r="35">
@@ -11192,19 +11192,19 @@
         <v>105772</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>89914</v>
+        <v>91009</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>121936</v>
+        <v>122875</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.404909208267877</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3442032613207047</v>
+        <v>0.3483912716666995</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4667859794780824</v>
+        <v>0.4703812754466766</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>110</v>
@@ -11213,19 +11213,19 @@
         <v>110657</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>93689</v>
+        <v>94907</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>127307</v>
+        <v>125676</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4082873129033934</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3456832330643897</v>
+        <v>0.3501769074680144</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4697207920004667</v>
+        <v>0.4637021517839909</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>214</v>
@@ -11234,19 +11234,19 @@
         <v>216429</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>195099</v>
+        <v>193042</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>239781</v>
+        <v>240846</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4066293650642671</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3665543756542517</v>
+        <v>0.3626889873117844</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.450502234700473</v>
+        <v>0.452503986165142</v>
       </c>
     </row>
     <row r="36">
@@ -11263,19 +11263,19 @@
         <v>57021</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>44818</v>
+        <v>43175</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>70241</v>
+        <v>70892</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2182828314600873</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1715668335297806</v>
+        <v>0.1652806346933887</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2688893903967898</v>
+        <v>0.2713828182974785</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>57</v>
@@ -11284,19 +11284,19 @@
         <v>57469</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>45451</v>
+        <v>45409</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>70369</v>
+        <v>71193</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2120428469384234</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1676982758708412</v>
+        <v>0.1675444016776248</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2596366594932514</v>
+        <v>0.2626798534518955</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>111</v>
@@ -11305,19 +11305,19 @@
         <v>114490</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>95844</v>
+        <v>97830</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>132979</v>
+        <v>136564</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2151053834700347</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1800718797420717</v>
+        <v>0.1838030789834873</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2498429238593113</v>
+        <v>0.2565785552593763</v>
       </c>
     </row>
     <row r="37">
@@ -11334,19 +11334,19 @@
         <v>5336</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1874</v>
+        <v>2535</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10954</v>
+        <v>10864</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02042859441009384</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.007175003266577962</v>
+        <v>0.009702484813685344</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04193418342968242</v>
+        <v>0.04158723209284075</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>8</v>
@@ -11355,19 +11355,19 @@
         <v>7503</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2844</v>
+        <v>3677</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>14029</v>
+        <v>14215</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02768204898216001</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01049209717147314</v>
+        <v>0.01356861290651282</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05176393208935798</v>
+        <v>0.05244752821145453</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>14</v>
@@ -11376,19 +11376,19 @@
         <v>12839</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>7348</v>
+        <v>7954</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>20444</v>
+        <v>21053</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02412210912490333</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01380506022532302</v>
+        <v>0.01494461678599582</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0384106641282753</v>
+        <v>0.03955381676766725</v>
       </c>
     </row>
     <row r="38">
@@ -11405,19 +11405,19 @@
         <v>24607</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>16832</v>
+        <v>16706</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>34442</v>
+        <v>33437</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09419751976416134</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06443343313070157</v>
+        <v>0.06395085885743941</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1318475313232074</v>
+        <v>0.1280009516063706</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>29</v>
@@ -11426,19 +11426,19 @@
         <v>32270</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>22554</v>
+        <v>23004</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>44315</v>
+        <v>44727</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1190642963585429</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0832160864051678</v>
+        <v>0.08487701842819639</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1635068660925595</v>
+        <v>0.1650293726583109</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>56</v>
@@ -11447,19 +11447,19 @@
         <v>56876</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>43426</v>
+        <v>42978</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>71054</v>
+        <v>71982</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1068598731777936</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08158845803802482</v>
+        <v>0.0807480006015782</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1334976773010396</v>
+        <v>0.1352398208862408</v>
       </c>
     </row>
     <row r="39">
@@ -11551,19 +11551,19 @@
         <v>91279</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>74165</v>
+        <v>73727</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>109982</v>
+        <v>108305</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1404000685426123</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1140759556523892</v>
+        <v>0.1134027923134567</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1691670523218912</v>
+        <v>0.1665885148074426</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>97</v>
@@ -11572,19 +11572,19 @@
         <v>108747</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>88864</v>
+        <v>90920</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>129335</v>
+        <v>128526</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1584228289699357</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1294571678152213</v>
+        <v>0.1324517522988045</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1884150344198571</v>
+        <v>0.1872362215493073</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>179</v>
@@ -11593,19 +11593,19 @@
         <v>200027</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>173230</v>
+        <v>176411</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>230093</v>
+        <v>228381</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1496561882085192</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1296074632339483</v>
+        <v>0.1319873963880331</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1721510699548885</v>
+        <v>0.1708700185107677</v>
       </c>
     </row>
     <row r="41">
@@ -11622,19 +11622,19 @@
         <v>222184</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>199552</v>
+        <v>200214</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>252559</v>
+        <v>250434</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3417493030221742</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3069376165362829</v>
+        <v>0.3079569478377928</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3884704831885553</v>
+        <v>0.3852022961656793</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>232</v>
@@ -11643,19 +11643,19 @@
         <v>245373</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>221265</v>
+        <v>222030</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>270360</v>
+        <v>273047</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3574593531132482</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3223387024816777</v>
+        <v>0.3234534256022084</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.393859275710901</v>
+        <v>0.3977745103707599</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>426</v>
@@ -11664,19 +11664,19 @@
         <v>467558</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>432402</v>
+        <v>432112</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>507492</v>
+        <v>505983</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3498176621498869</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3235152263680114</v>
+        <v>0.3232982782491937</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3796955541041399</v>
+        <v>0.3785669170656888</v>
       </c>
     </row>
     <row r="42">
@@ -11693,19 +11693,19 @@
         <v>159283</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>135790</v>
+        <v>138243</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>180579</v>
+        <v>184634</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2449983890290807</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2088629697211313</v>
+        <v>0.2126361842171793</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2777555032262649</v>
+        <v>0.2839919695035756</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>156</v>
@@ -11714,19 +11714,19 @@
         <v>162270</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>142600</v>
+        <v>140668</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>185636</v>
+        <v>183635</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2363941082451964</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2077394796710935</v>
+        <v>0.204924206483091</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2704343379709035</v>
+        <v>0.2675196205546568</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>294</v>
@@ -11735,19 +11735,19 @@
         <v>321552</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>286591</v>
+        <v>291245</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>357083</v>
+        <v>356982</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2405794071036508</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2144217501843855</v>
+        <v>0.2179040388466702</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.267162448499406</v>
+        <v>0.2670868427080184</v>
       </c>
     </row>
     <row r="43">
@@ -11764,19 +11764,19 @@
         <v>34670</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>23865</v>
+        <v>23488</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>49353</v>
+        <v>49235</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.0533277388821</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0367069574663967</v>
+        <v>0.03612803818410835</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07591233621097676</v>
+        <v>0.07572990085821688</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>31</v>
@@ -11785,19 +11785,19 @@
         <v>31943</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>22061</v>
+        <v>21583</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>43684</v>
+        <v>44822</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04653446290123227</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0321380867538319</v>
+        <v>0.03144185177118902</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06363841161187862</v>
+        <v>0.06529599881910325</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>61</v>
@@ -11806,19 +11806,19 @@
         <v>66613</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>50954</v>
+        <v>51851</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>84500</v>
+        <v>85090</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04983885183530141</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03812296446565909</v>
+        <v>0.03879372631237684</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06322127581226639</v>
+        <v>0.06366244697883908</v>
       </c>
     </row>
     <row r="44">
@@ -11835,19 +11835,19 @@
         <v>142721</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>121174</v>
+        <v>122633</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>162989</v>
+        <v>166680</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2195245005240327</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1863818533885425</v>
+        <v>0.1886257621245349</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2507000764630943</v>
+        <v>0.2563764859813086</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>126</v>
@@ -11856,19 +11856,19 @@
         <v>138104</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>116998</v>
+        <v>117605</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>160138</v>
+        <v>160338</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2011892467703874</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1704428992027785</v>
+        <v>0.1713271006776577</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2332883356301904</v>
+        <v>0.2335807270307974</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>256</v>
@@ -11877,19 +11877,19 @@
         <v>280825</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>252450</v>
+        <v>249756</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>315598</v>
+        <v>312007</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2101078907026417</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.188878492358552</v>
+        <v>0.1868625162961465</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2361241932647476</v>
+        <v>0.2334380538734936</v>
       </c>
     </row>
     <row r="45">
@@ -11981,19 +11981,19 @@
         <v>304096</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>277385</v>
+        <v>277921</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>331607</v>
+        <v>333463</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3920366621612201</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.3576015811148646</v>
+        <v>0.358291390243034</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.4275030410185132</v>
+        <v>0.4298953766575844</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>268</v>
@@ -12002,19 +12002,19 @@
         <v>292580</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>265620</v>
+        <v>263333</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>319929</v>
+        <v>319887</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3541420331979451</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3215084613356596</v>
+        <v>0.318740346846333</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3872448219590665</v>
+        <v>0.3871947069099785</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>559</v>
@@ -12023,19 +12023,19 @@
         <v>596677</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>560586</v>
+        <v>555797</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>638509</v>
+        <v>633622</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.3724922059115793</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3499615193202741</v>
+        <v>0.3469718046098587</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3986071605160943</v>
+        <v>0.3955562347579423</v>
       </c>
     </row>
     <row r="47">
@@ -12052,19 +12052,19 @@
         <v>280378</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>251972</v>
+        <v>251592</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>306961</v>
+        <v>308351</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3614589302292252</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3248391676157444</v>
+        <v>0.3243490919607081</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3957301088102045</v>
+        <v>0.3975223907617052</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>305</v>
@@ -12073,19 +12073,19 @@
         <v>331321</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>300934</v>
+        <v>303812</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>358645</v>
+        <v>361093</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.4010344196036466</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.36425364229929</v>
+        <v>0.36773658773962</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4341072395474689</v>
+        <v>0.4370697443018272</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>576</v>
@@ -12094,19 +12094,19 @@
         <v>611699</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>571952</v>
+        <v>573445</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>651390</v>
+        <v>654425</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3818703036031699</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3570569262069709</v>
+        <v>0.357989284530494</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4066483542705058</v>
+        <v>0.4085429425866057</v>
       </c>
     </row>
     <row r="48">
@@ -12123,19 +12123,19 @@
         <v>100553</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>83402</v>
+        <v>82254</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>121040</v>
+        <v>121370</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1296311770853439</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.107520505806538</v>
+        <v>0.1060402771872218</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1560429923973386</v>
+        <v>0.1564689275537755</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>106</v>
@@ -12144,19 +12144,19 @@
         <v>112504</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>92031</v>
+        <v>91724</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>132292</v>
+        <v>135148</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1361756410982244</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1113955826632643</v>
+        <v>0.1110237862197238</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1601273743537844</v>
+        <v>0.1635848692188101</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>202</v>
@@ -12165,19 +12165,19 @@
         <v>213057</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>185246</v>
+        <v>185993</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>240634</v>
+        <v>239074</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1330065364456652</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.115645142015939</v>
+        <v>0.1161112738120119</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1502225019041684</v>
+        <v>0.1492488763829663</v>
       </c>
     </row>
     <row r="49">
@@ -12194,19 +12194,19 @@
         <v>17112</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>10462</v>
+        <v>10124</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>27307</v>
+        <v>27402</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02206025224017754</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01348683673014574</v>
+        <v>0.01305174978474299</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.03520335766917191</v>
+        <v>0.03532594090432999</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>15</v>
@@ -12215,19 +12215,19 @@
         <v>16252</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>9647</v>
+        <v>9350</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>26503</v>
+        <v>27443</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01967125494411308</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01167640959628803</v>
+        <v>0.01131786150775449</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.03207952389735139</v>
+        <v>0.03321736243672451</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>32</v>
@@ -12236,19 +12236,19 @@
         <v>33364</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>22470</v>
+        <v>23191</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>46764</v>
+        <v>47664</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02082810788592901</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01402738803855275</v>
+        <v>0.01447764075624944</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02919372168511979</v>
+        <v>0.02975588162637031</v>
       </c>
     </row>
     <row r="50">
@@ -12265,19 +12265,19 @@
         <v>73545</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>57461</v>
+        <v>59011</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>89865</v>
+        <v>91325</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.09481297828403322</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.07407832748215901</v>
+        <v>0.07607672798947786</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1158522741883136</v>
+        <v>0.1177355556689146</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>61</v>
@@ -12286,19 +12286,19 @@
         <v>73510</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>57058</v>
+        <v>55709</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>92217</v>
+        <v>90424</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.08897665115607088</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0690638344430147</v>
+        <v>0.0674309526770812</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1116206825962265</v>
+        <v>0.1094503786616811</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>133</v>
@@ -12307,19 +12307,19 @@
         <v>147054</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>123581</v>
+        <v>125222</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>171719</v>
+        <v>173600</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.09180284615365666</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.07714898190154584</v>
+        <v>0.07817343918032173</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1072004622131727</v>
+        <v>0.1083746455218395</v>
       </c>
     </row>
     <row r="51">
@@ -12411,19 +12411,19 @@
         <v>1124392</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1072443</v>
+        <v>1069910</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>1177448</v>
+        <v>1181367</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.3326456989429528</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.3172769654867429</v>
+        <v>0.3165274210181125</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.3483420091427182</v>
+        <v>0.3495016057259051</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>1119</v>
@@ -12432,19 +12432,19 @@
         <v>1215028</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1154677</v>
+        <v>1157649</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>1271862</v>
+        <v>1274197</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.3436719918886894</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.3266017332320784</v>
+        <v>0.3274423877569613</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.3597475574332836</v>
+        <v>0.3604081637576998</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>2188</v>
@@ -12453,19 +12453,19 @@
         <v>2339420</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>2260650</v>
+        <v>2260329</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>2420785</v>
+        <v>2427427</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.3382826362448725</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.3268924456516616</v>
+        <v>0.3268460358938266</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.3500481822071307</v>
+        <v>0.3510085503906062</v>
       </c>
     </row>
     <row r="53">
@@ -12482,19 +12482,19 @@
         <v>1221205</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1167232</v>
+        <v>1161934</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1278282</v>
+        <v>1278992</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.3612873536528339</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.3453199375972479</v>
+        <v>0.3437523738830108</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.3781734155812551</v>
+        <v>0.3783833117903197</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>1229</v>
@@ -12503,19 +12503,19 @@
         <v>1290623</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>1234392</v>
+        <v>1230987</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>1351525</v>
+        <v>1349022</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.3650542296908955</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.3491491520356378</v>
+        <v>0.3481860435821739</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.3822802477428884</v>
+        <v>0.3815723075214861</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>2398</v>
@@ -12524,19 +12524,19 @@
         <v>2511828</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>2423726</v>
+        <v>2429871</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>2591137</v>
+        <v>2593201</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.3632130819238996</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.3504734345513727</v>
+        <v>0.3513620222384567</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.3746813070371124</v>
+        <v>0.3749796988491228</v>
       </c>
     </row>
     <row r="54">
@@ -12553,19 +12553,19 @@
         <v>640747</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>591956</v>
+        <v>597519</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>684561</v>
+        <v>689112</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.189561761426917</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1751273614586236</v>
+        <v>0.176772986550831</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2025240151371406</v>
+        <v>0.203870276602072</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>640</v>
@@ -12574,19 +12574,19 @@
         <v>654219</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>606469</v>
+        <v>604266</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>699264</v>
+        <v>701854</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1850466548822706</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.171540430892033</v>
+        <v>0.170917350107366</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1977875423424326</v>
+        <v>0.1985200667263802</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1246</v>
@@ -12595,19 +12595,19 @@
         <v>1294966</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1227468</v>
+        <v>1231973</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1355708</v>
+        <v>1361398</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1872535176110749</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1774932452682313</v>
+        <v>0.1781445861399866</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1960368839143775</v>
+        <v>0.1968596709081328</v>
       </c>
     </row>
     <row r="55">
@@ -12624,19 +12624,19 @@
         <v>93101</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>75403</v>
+        <v>75193</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>114998</v>
+        <v>114172</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.02754336229360265</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.02230750374324713</v>
+        <v>0.02224562197038066</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.03402171301997294</v>
+        <v>0.03377736410724266</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>71</v>
@@ -12645,19 +12645,19 @@
         <v>72700</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>57585</v>
+        <v>57888</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>91869</v>
+        <v>90454</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.02056337197676043</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.01628798208241646</v>
+        <v>0.01637356845978168</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.02598536353974899</v>
+        <v>0.02558497258968032</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>160</v>
@@ -12666,19 +12666,19 @@
         <v>165801</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>142913</v>
+        <v>141148</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>195117</v>
+        <v>192487</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.02397500364598847</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.02066541609089089</v>
+        <v>0.02041010349181643</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.02821413596508283</v>
+        <v>0.02783386673906402</v>
       </c>
     </row>
     <row r="56">
@@ -12695,19 +12695,19 @@
         <v>300704</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>271035</v>
+        <v>270154</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>337597</v>
+        <v>338615</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.08896182368369365</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.08018447088446394</v>
+        <v>0.079923579890933</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.09987633613039683</v>
+        <v>0.100177517297617</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>271</v>
@@ -12716,19 +12716,19 @@
         <v>302858</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>270995</v>
+        <v>269911</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>336663</v>
+        <v>341107</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.08566375156138423</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.07665118593734943</v>
+        <v>0.07634452074839831</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.09522540419341831</v>
+        <v>0.09648261429186326</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>555</v>
@@ -12737,19 +12737,19 @@
         <v>603562</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>555556</v>
+        <v>557123</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>658279</v>
+        <v>654618</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.08727576057416454</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.08033397531674485</v>
+        <v>0.08056054248156815</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.09518780331339728</v>
+        <v>0.0946585407824648</v>
       </c>
     </row>
     <row r="57">
